--- a/src/main/resources/XMU/Billing.xlsx
+++ b/src/main/resources/XMU/Billing.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2175" uniqueCount="1061">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2290" uniqueCount="1062">
   <si>
     <t>SAP Billing</t>
   </si>
@@ -3211,6 +3211,9 @@
   </si>
   <si>
     <t>568969</t>
+  </si>
+  <si>
+    <t>AG1004</t>
   </si>
 </sst>
 </file>
@@ -3596,7 +3599,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P142"/>
+  <dimension ref="A1:O127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
@@ -3604,20 +3607,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="13.25" collapsed="false"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="13.375" collapsed="false"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="15.75" collapsed="false"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.375" collapsed="false"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="13.875" collapsed="false"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="16.875" collapsed="false"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="23.5" collapsed="false"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="11.75" collapsed="false"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="10.5" collapsed="false"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="13.375" collapsed="false"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="10.75" collapsed="false"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="5.75" collapsed="false"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="9.75" collapsed="false"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="10.625" collapsed="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="13.25" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="13.375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="15.75" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="13.875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="16.875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="23.5" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="11.75" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="13.375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="10.75" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="5.75" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="9.75" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="10.625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="18" x14ac:dyDescent="0.2">
@@ -3699,13 +3702,13 @@
         <v>25</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
-      </c>
-      <c r="L2" t="s">
-        <v>26</v>
-      </c>
-      <c r="M2" t="s">
-        <v>26</v>
+        <v>1061</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>499.12</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
@@ -3746,13 +3749,13 @@
         <v>34</v>
       </c>
       <c r="K3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L3" t="s">
-        <v>26</v>
-      </c>
-      <c r="M3" t="s">
-        <v>26</v>
+        <v>1061</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4275.66</v>
       </c>
       <c r="N3" t="s">
         <v>26</v>
@@ -3793,13 +3796,13 @@
         <v>39</v>
       </c>
       <c r="K4" t="s">
-        <v>26</v>
-      </c>
-      <c r="L4" t="s">
-        <v>26</v>
-      </c>
-      <c r="M4" t="s">
-        <v>26</v>
+        <v>1061</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5486.72</v>
       </c>
       <c r="N4" t="s">
         <v>26</v>
@@ -3840,13 +3843,13 @@
         <v>43</v>
       </c>
       <c r="K5" t="s">
-        <v>26</v>
-      </c>
-      <c r="L5" t="s">
-        <v>26</v>
-      </c>
-      <c r="M5" t="s">
-        <v>26</v>
+        <v>1061</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>12943.96</v>
       </c>
       <c r="N5" t="s">
         <v>26</v>
@@ -3872,34 +3875,34 @@
         <v>20</v>
       </c>
       <c r="F6" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="I6" t="s">
         <v>24</v>
       </c>
       <c r="J6" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="K6" t="s">
-        <v>26</v>
-      </c>
-      <c r="L6" t="s">
-        <v>26</v>
-      </c>
-      <c r="M6" t="s">
-        <v>26</v>
+        <v>1061</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>8803.13</v>
       </c>
       <c r="N6" t="s">
         <v>26</v>
       </c>
       <c r="O6" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7">
@@ -3919,45 +3922,45 @@
         <v>20</v>
       </c>
       <c r="F7" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="G7" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="H7" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="I7" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="J7" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="K7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M7" t="s">
-        <v>26</v>
+        <v>1061</v>
+      </c>
+      <c r="L7" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4524.42</v>
       </c>
       <c r="N7" t="s">
         <v>26</v>
       </c>
       <c r="O7" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="D8" t="s">
         <v>19</v>
@@ -3966,45 +3969,45 @@
         <v>20</v>
       </c>
       <c r="F8" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="G8" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="H8" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="I8" t="s">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="J8" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="K8" t="s">
-        <v>26</v>
-      </c>
-      <c r="L8" t="s">
-        <v>26</v>
-      </c>
-      <c r="M8" t="s">
-        <v>26</v>
+        <v>1061</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>395.16</v>
       </c>
       <c r="N8" t="s">
         <v>26</v>
       </c>
       <c r="O8" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="B9" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="C9" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="D9" t="s">
         <v>19</v>
@@ -4013,45 +4016,45 @@
         <v>20</v>
       </c>
       <c r="F9" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="G9" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="H9" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="I9" t="s">
         <v>24</v>
       </c>
       <c r="J9" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="K9" t="s">
-        <v>26</v>
-      </c>
-      <c r="L9" t="s">
-        <v>26</v>
-      </c>
-      <c r="M9" t="s">
-        <v>26</v>
+        <v>1061</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>226.93</v>
       </c>
       <c r="N9" t="s">
         <v>26</v>
       </c>
       <c r="O9" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="B10" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="C10" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="D10" t="s">
         <v>19</v>
@@ -4060,45 +4063,45 @@
         <v>20</v>
       </c>
       <c r="F10" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="G10" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="H10" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="I10" t="s">
         <v>24</v>
       </c>
       <c r="J10" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="K10" t="s">
-        <v>26</v>
-      </c>
-      <c r="L10" t="s">
-        <v>26</v>
-      </c>
-      <c r="M10" t="s">
-        <v>26</v>
+        <v>1061</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>227.57</v>
       </c>
       <c r="N10" t="s">
         <v>26</v>
       </c>
       <c r="O10" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="B11" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="C11" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="D11" t="s">
         <v>19</v>
@@ -4107,45 +4110,45 @@
         <v>20</v>
       </c>
       <c r="F11" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G11" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H11" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="I11" t="s">
         <v>24</v>
       </c>
       <c r="J11" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="K11" t="s">
         <v>26</v>
       </c>
-      <c r="L11" t="s">
-        <v>26</v>
-      </c>
-      <c r="M11" t="s">
-        <v>26</v>
+      <c r="L11" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>2592.65</v>
       </c>
       <c r="N11" t="s">
         <v>26</v>
       </c>
       <c r="O11" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="B12" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="C12" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="D12" t="s">
         <v>19</v>
@@ -4154,45 +4157,45 @@
         <v>20</v>
       </c>
       <c r="F12" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="G12" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="H12" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="I12" t="s">
         <v>24</v>
       </c>
       <c r="J12" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="K12" t="s">
-        <v>26</v>
-      </c>
-      <c r="L12" t="s">
-        <v>26</v>
-      </c>
-      <c r="M12" t="s">
-        <v>26</v>
+        <v>1061</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>912.93</v>
       </c>
       <c r="N12" t="s">
         <v>26</v>
       </c>
       <c r="O12" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="B13" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="C13" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="D13" t="s">
         <v>19</v>
@@ -4201,45 +4204,45 @@
         <v>20</v>
       </c>
       <c r="F13" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="G13" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="H13" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="I13" t="s">
         <v>24</v>
       </c>
       <c r="J13" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="K13" t="s">
-        <v>26</v>
-      </c>
-      <c r="L13" t="s">
-        <v>26</v>
-      </c>
-      <c r="M13" t="s">
-        <v>26</v>
+        <v>1061</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>394.18</v>
       </c>
       <c r="N13" t="s">
         <v>26</v>
       </c>
       <c r="O13" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="B14" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="C14" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="D14" t="s">
         <v>19</v>
@@ -4248,45 +4251,45 @@
         <v>20</v>
       </c>
       <c r="F14" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="G14" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="H14" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="I14" t="s">
         <v>24</v>
       </c>
       <c r="J14" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="K14" t="s">
-        <v>26</v>
-      </c>
-      <c r="L14" t="s">
-        <v>26</v>
-      </c>
-      <c r="M14" t="s">
-        <v>26</v>
+        <v>1061</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>557.14</v>
       </c>
       <c r="N14" t="s">
         <v>26</v>
       </c>
       <c r="O14" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="B15" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="C15" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="D15" t="s">
         <v>19</v>
@@ -4295,45 +4298,45 @@
         <v>20</v>
       </c>
       <c r="F15" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="G15" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="H15" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="I15" t="s">
         <v>24</v>
       </c>
       <c r="J15" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="K15" t="s">
-        <v>26</v>
-      </c>
-      <c r="L15" t="s">
-        <v>26</v>
-      </c>
-      <c r="M15" t="s">
-        <v>26</v>
+        <v>1061</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>715.34</v>
       </c>
       <c r="N15" t="s">
         <v>26</v>
       </c>
       <c r="O15" t="s">
-        <v>116</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="B16" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="C16" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="D16" t="s">
         <v>19</v>
@@ -4342,45 +4345,45 @@
         <v>20</v>
       </c>
       <c r="F16" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="G16" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="H16" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="I16" t="s">
         <v>24</v>
       </c>
       <c r="J16" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="K16" t="s">
-        <v>26</v>
-      </c>
-      <c r="L16" t="s">
-        <v>26</v>
-      </c>
-      <c r="M16" t="s">
-        <v>26</v>
+        <v>1061</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>856.46</v>
       </c>
       <c r="N16" t="s">
         <v>26</v>
       </c>
       <c r="O16" t="s">
-        <v>84</v>
+        <v>131</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="B17" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="C17" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="D17" t="s">
         <v>19</v>
@@ -4389,45 +4392,45 @@
         <v>20</v>
       </c>
       <c r="F17" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="G17" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="H17" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="I17" t="s">
         <v>24</v>
       </c>
       <c r="J17" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="K17" t="s">
-        <v>26</v>
-      </c>
-      <c r="L17" t="s">
-        <v>26</v>
-      </c>
-      <c r="M17" t="s">
-        <v>26</v>
+        <v>1061</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>2095.43</v>
       </c>
       <c r="N17" t="s">
         <v>26</v>
       </c>
       <c r="O17" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="B18" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="C18" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="D18" t="s">
         <v>19</v>
@@ -4436,45 +4439,45 @@
         <v>20</v>
       </c>
       <c r="F18" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="G18" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="H18" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="I18" t="s">
         <v>24</v>
       </c>
       <c r="J18" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="K18" t="s">
-        <v>26</v>
-      </c>
-      <c r="L18" t="s">
-        <v>26</v>
-      </c>
-      <c r="M18" t="s">
-        <v>26</v>
+        <v>1061</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>2695.15</v>
       </c>
       <c r="N18" t="s">
         <v>26</v>
       </c>
       <c r="O18" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="B19" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="C19" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="D19" t="s">
         <v>19</v>
@@ -4483,45 +4486,45 @@
         <v>20</v>
       </c>
       <c r="F19" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="G19" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="H19" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="I19" t="s">
         <v>24</v>
       </c>
       <c r="J19" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="K19" t="s">
-        <v>26</v>
-      </c>
-      <c r="L19" t="s">
-        <v>26</v>
-      </c>
-      <c r="M19" t="s">
-        <v>26</v>
+        <v>1061</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>329.59</v>
       </c>
       <c r="N19" t="s">
         <v>26</v>
       </c>
       <c r="O19" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="B20" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="C20" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="D20" t="s">
         <v>19</v>
@@ -4530,45 +4533,45 @@
         <v>20</v>
       </c>
       <c r="F20" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="G20" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="H20" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="I20" t="s">
         <v>24</v>
       </c>
       <c r="J20" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="K20" t="s">
-        <v>26</v>
-      </c>
-      <c r="L20" t="s">
-        <v>26</v>
-      </c>
-      <c r="M20" t="s">
-        <v>26</v>
+        <v>1061</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>564.3</v>
       </c>
       <c r="N20" t="s">
         <v>26</v>
       </c>
       <c r="O20" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="B21" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="C21" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="D21" t="s">
         <v>19</v>
@@ -4577,45 +4580,45 @@
         <v>20</v>
       </c>
       <c r="F21" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="G21" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="H21" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="I21" t="s">
         <v>24</v>
       </c>
       <c r="J21" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="K21" t="s">
         <v>26</v>
       </c>
-      <c r="L21" t="s">
-        <v>26</v>
-      </c>
-      <c r="M21" t="s">
-        <v>26</v>
+      <c r="L21" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1183.46</v>
       </c>
       <c r="N21" t="s">
         <v>26</v>
       </c>
       <c r="O21" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="B22" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="C22" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="D22" t="s">
         <v>19</v>
@@ -4624,45 +4627,45 @@
         <v>20</v>
       </c>
       <c r="F22" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="G22" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="H22" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="I22" t="s">
         <v>24</v>
       </c>
       <c r="J22" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="K22" t="s">
-        <v>26</v>
-      </c>
-      <c r="L22" t="s">
-        <v>26</v>
-      </c>
-      <c r="M22" t="s">
-        <v>26</v>
+        <v>1061</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1415.86</v>
       </c>
       <c r="N22" t="s">
         <v>26</v>
       </c>
       <c r="O22" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="B23" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="C23" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="D23" t="s">
         <v>19</v>
@@ -4671,45 +4674,45 @@
         <v>20</v>
       </c>
       <c r="F23" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="G23" t="s">
-        <v>152</v>
+        <v>183</v>
       </c>
       <c r="H23" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="I23" t="s">
         <v>24</v>
       </c>
       <c r="J23" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="K23" t="s">
-        <v>26</v>
-      </c>
-      <c r="L23" t="s">
-        <v>26</v>
-      </c>
-      <c r="M23" t="s">
-        <v>26</v>
+        <v>1061</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>767.97</v>
       </c>
       <c r="N23" t="s">
         <v>26</v>
       </c>
       <c r="O23" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="B24" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="C24" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="D24" t="s">
         <v>19</v>
@@ -4718,45 +4721,45 @@
         <v>20</v>
       </c>
       <c r="F24" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="G24" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="H24" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="I24" t="s">
-        <v>24</v>
+        <v>201</v>
       </c>
       <c r="J24" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="K24" t="s">
         <v>26</v>
       </c>
-      <c r="L24" t="s">
-        <v>26</v>
-      </c>
-      <c r="M24" t="s">
-        <v>26</v>
+      <c r="L24" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>780.0</v>
       </c>
       <c r="N24" t="s">
         <v>26</v>
       </c>
       <c r="O24" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>187</v>
+        <v>207</v>
       </c>
       <c r="B25" t="s">
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="C25" t="s">
-        <v>189</v>
+        <v>209</v>
       </c>
       <c r="D25" t="s">
         <v>19</v>
@@ -4765,45 +4768,45 @@
         <v>20</v>
       </c>
       <c r="F25" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="G25" t="s">
-        <v>191</v>
+        <v>211</v>
       </c>
       <c r="H25" t="s">
-        <v>192</v>
+        <v>212</v>
       </c>
       <c r="I25" t="s">
         <v>24</v>
       </c>
       <c r="J25" t="s">
-        <v>193</v>
+        <v>213</v>
       </c>
       <c r="K25" t="s">
-        <v>26</v>
-      </c>
-      <c r="L25" t="s">
-        <v>26</v>
-      </c>
-      <c r="M25" t="s">
-        <v>26</v>
+        <v>1061</v>
+      </c>
+      <c r="L25" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>673.24</v>
       </c>
       <c r="N25" t="s">
         <v>26</v>
       </c>
       <c r="O25" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="B26" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="C26" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="D26" t="s">
         <v>19</v>
@@ -4812,45 +4815,45 @@
         <v>20</v>
       </c>
       <c r="F26" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="G26" t="s">
-        <v>199</v>
+        <v>219</v>
       </c>
       <c r="H26" t="s">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="I26" t="s">
-        <v>201</v>
+        <v>24</v>
       </c>
       <c r="J26" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="K26" t="s">
-        <v>26</v>
-      </c>
-      <c r="L26" t="s">
-        <v>26</v>
-      </c>
-      <c r="M26" t="s">
-        <v>26</v>
+        <v>1061</v>
+      </c>
+      <c r="L26" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>589.28</v>
       </c>
       <c r="N26" t="s">
         <v>26</v>
       </c>
       <c r="O26" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>195</v>
+        <v>223</v>
       </c>
       <c r="B27" t="s">
-        <v>196</v>
+        <v>224</v>
       </c>
       <c r="C27" t="s">
-        <v>197</v>
+        <v>225</v>
       </c>
       <c r="D27" t="s">
         <v>19</v>
@@ -4859,45 +4862,45 @@
         <v>20</v>
       </c>
       <c r="F27" t="s">
-        <v>198</v>
+        <v>226</v>
       </c>
       <c r="G27" t="s">
-        <v>199</v>
+        <v>227</v>
       </c>
       <c r="H27" t="s">
-        <v>200</v>
+        <v>228</v>
       </c>
       <c r="I27" t="s">
-        <v>204</v>
+        <v>24</v>
       </c>
       <c r="J27" t="s">
-        <v>205</v>
+        <v>229</v>
       </c>
       <c r="K27" t="s">
-        <v>26</v>
-      </c>
-      <c r="L27" t="s">
-        <v>26</v>
-      </c>
-      <c r="M27" t="s">
-        <v>26</v>
+        <v>1061</v>
+      </c>
+      <c r="L27" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>890.02</v>
       </c>
       <c r="N27" t="s">
         <v>26</v>
       </c>
       <c r="O27" t="s">
-        <v>206</v>
+        <v>230</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>207</v>
+        <v>231</v>
       </c>
       <c r="B28" t="s">
-        <v>208</v>
+        <v>232</v>
       </c>
       <c r="C28" t="s">
-        <v>209</v>
+        <v>233</v>
       </c>
       <c r="D28" t="s">
         <v>19</v>
@@ -4906,45 +4909,45 @@
         <v>20</v>
       </c>
       <c r="F28" t="s">
-        <v>210</v>
+        <v>234</v>
       </c>
       <c r="G28" t="s">
-        <v>211</v>
+        <v>235</v>
       </c>
       <c r="H28" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="I28" t="s">
         <v>24</v>
       </c>
       <c r="J28" t="s">
-        <v>213</v>
+        <v>237</v>
       </c>
       <c r="K28" t="s">
-        <v>26</v>
-      </c>
-      <c r="L28" t="s">
-        <v>26</v>
-      </c>
-      <c r="M28" t="s">
-        <v>26</v>
+        <v>1061</v>
+      </c>
+      <c r="L28" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>547.09</v>
       </c>
       <c r="N28" t="s">
         <v>26</v>
       </c>
       <c r="O28" t="s">
-        <v>214</v>
+        <v>238</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>215</v>
+        <v>239</v>
       </c>
       <c r="B29" t="s">
-        <v>216</v>
+        <v>240</v>
       </c>
       <c r="C29" t="s">
-        <v>217</v>
+        <v>241</v>
       </c>
       <c r="D29" t="s">
         <v>19</v>
@@ -4953,45 +4956,45 @@
         <v>20</v>
       </c>
       <c r="F29" t="s">
-        <v>218</v>
+        <v>242</v>
       </c>
       <c r="G29" t="s">
-        <v>219</v>
+        <v>243</v>
       </c>
       <c r="H29" t="s">
-        <v>220</v>
+        <v>244</v>
       </c>
       <c r="I29" t="s">
         <v>24</v>
       </c>
       <c r="J29" t="s">
-        <v>221</v>
+        <v>245</v>
       </c>
       <c r="K29" t="s">
-        <v>26</v>
-      </c>
-      <c r="L29" t="s">
-        <v>26</v>
-      </c>
-      <c r="M29" t="s">
-        <v>26</v>
+        <v>1061</v>
+      </c>
+      <c r="L29" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>341.4</v>
       </c>
       <c r="N29" t="s">
         <v>26</v>
       </c>
       <c r="O29" t="s">
-        <v>222</v>
+        <v>246</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>223</v>
+        <v>239</v>
       </c>
       <c r="B30" t="s">
-        <v>224</v>
+        <v>247</v>
       </c>
       <c r="C30" t="s">
-        <v>225</v>
+        <v>241</v>
       </c>
       <c r="D30" t="s">
         <v>19</v>
@@ -5000,45 +5003,45 @@
         <v>20</v>
       </c>
       <c r="F30" t="s">
-        <v>226</v>
+        <v>248</v>
       </c>
       <c r="G30" t="s">
-        <v>227</v>
+        <v>249</v>
       </c>
       <c r="H30" t="s">
-        <v>228</v>
+        <v>250</v>
       </c>
       <c r="I30" t="s">
         <v>24</v>
       </c>
       <c r="J30" t="s">
-        <v>229</v>
+        <v>251</v>
       </c>
       <c r="K30" t="s">
-        <v>26</v>
-      </c>
-      <c r="L30" t="s">
-        <v>26</v>
-      </c>
-      <c r="M30" t="s">
-        <v>26</v>
+        <v>1061</v>
+      </c>
+      <c r="L30" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>626.17</v>
       </c>
       <c r="N30" t="s">
         <v>26</v>
       </c>
       <c r="O30" t="s">
-        <v>230</v>
+        <v>252</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>231</v>
+        <v>253</v>
       </c>
       <c r="B31" t="s">
-        <v>232</v>
+        <v>254</v>
       </c>
       <c r="C31" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="D31" t="s">
         <v>19</v>
@@ -5047,45 +5050,45 @@
         <v>20</v>
       </c>
       <c r="F31" t="s">
-        <v>234</v>
+        <v>255</v>
       </c>
       <c r="G31" t="s">
-        <v>235</v>
+        <v>256</v>
       </c>
       <c r="H31" t="s">
-        <v>236</v>
+        <v>257</v>
       </c>
       <c r="I31" t="s">
         <v>24</v>
       </c>
       <c r="J31" t="s">
-        <v>237</v>
+        <v>258</v>
       </c>
       <c r="K31" t="s">
-        <v>26</v>
-      </c>
-      <c r="L31" t="s">
-        <v>26</v>
-      </c>
-      <c r="M31" t="s">
-        <v>26</v>
+        <v>1061</v>
+      </c>
+      <c r="L31" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>669.35</v>
       </c>
       <c r="N31" t="s">
         <v>26</v>
       </c>
       <c r="O31" t="s">
-        <v>238</v>
+        <v>259</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>239</v>
+        <v>260</v>
       </c>
       <c r="B32" t="s">
-        <v>240</v>
+        <v>261</v>
       </c>
       <c r="C32" t="s">
-        <v>241</v>
+        <v>262</v>
       </c>
       <c r="D32" t="s">
         <v>19</v>
@@ -5094,45 +5097,45 @@
         <v>20</v>
       </c>
       <c r="F32" t="s">
-        <v>242</v>
+        <v>263</v>
       </c>
       <c r="G32" t="s">
-        <v>243</v>
+        <v>264</v>
       </c>
       <c r="H32" t="s">
-        <v>244</v>
+        <v>265</v>
       </c>
       <c r="I32" t="s">
         <v>24</v>
       </c>
       <c r="J32" t="s">
-        <v>245</v>
+        <v>266</v>
       </c>
       <c r="K32" t="s">
-        <v>26</v>
-      </c>
-      <c r="L32" t="s">
-        <v>26</v>
-      </c>
-      <c r="M32" t="s">
-        <v>26</v>
+        <v>1061</v>
+      </c>
+      <c r="L32" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>518.04</v>
       </c>
       <c r="N32" t="s">
         <v>26</v>
       </c>
       <c r="O32" t="s">
-        <v>246</v>
+        <v>267</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>239</v>
+        <v>268</v>
       </c>
       <c r="B33" t="s">
-        <v>247</v>
+        <v>269</v>
       </c>
       <c r="C33" t="s">
-        <v>241</v>
+        <v>270</v>
       </c>
       <c r="D33" t="s">
         <v>19</v>
@@ -5141,45 +5144,45 @@
         <v>20</v>
       </c>
       <c r="F33" t="s">
-        <v>248</v>
+        <v>271</v>
       </c>
       <c r="G33" t="s">
-        <v>249</v>
+        <v>272</v>
       </c>
       <c r="H33" t="s">
-        <v>250</v>
+        <v>273</v>
       </c>
       <c r="I33" t="s">
         <v>24</v>
       </c>
       <c r="J33" t="s">
-        <v>251</v>
+        <v>274</v>
       </c>
       <c r="K33" t="s">
-        <v>26</v>
-      </c>
-      <c r="L33" t="s">
-        <v>26</v>
-      </c>
-      <c r="M33" t="s">
-        <v>26</v>
+        <v>1061</v>
+      </c>
+      <c r="L33" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>3606.15</v>
       </c>
       <c r="N33" t="s">
         <v>26</v>
       </c>
       <c r="O33" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>253</v>
+        <v>276</v>
       </c>
       <c r="B34" t="s">
-        <v>254</v>
+        <v>277</v>
       </c>
       <c r="C34" t="s">
-        <v>241</v>
+        <v>278</v>
       </c>
       <c r="D34" t="s">
         <v>19</v>
@@ -5188,45 +5191,45 @@
         <v>20</v>
       </c>
       <c r="F34" t="s">
-        <v>255</v>
+        <v>279</v>
       </c>
       <c r="G34" t="s">
-        <v>256</v>
+        <v>280</v>
       </c>
       <c r="H34" t="s">
-        <v>257</v>
+        <v>281</v>
       </c>
       <c r="I34" t="s">
         <v>24</v>
       </c>
       <c r="J34" t="s">
-        <v>258</v>
+        <v>282</v>
       </c>
       <c r="K34" t="s">
-        <v>26</v>
-      </c>
-      <c r="L34" t="s">
-        <v>26</v>
-      </c>
-      <c r="M34" t="s">
-        <v>26</v>
+        <v>1061</v>
+      </c>
+      <c r="L34" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>311.55</v>
       </c>
       <c r="N34" t="s">
         <v>26</v>
       </c>
       <c r="O34" t="s">
-        <v>259</v>
+        <v>283</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>260</v>
+        <v>284</v>
       </c>
       <c r="B35" t="s">
-        <v>261</v>
+        <v>285</v>
       </c>
       <c r="C35" t="s">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="D35" t="s">
         <v>19</v>
@@ -5235,45 +5238,45 @@
         <v>20</v>
       </c>
       <c r="F35" t="s">
-        <v>263</v>
+        <v>287</v>
       </c>
       <c r="G35" t="s">
-        <v>264</v>
+        <v>288</v>
       </c>
       <c r="H35" t="s">
-        <v>265</v>
+        <v>289</v>
       </c>
       <c r="I35" t="s">
         <v>24</v>
       </c>
       <c r="J35" t="s">
-        <v>266</v>
+        <v>290</v>
       </c>
       <c r="K35" t="s">
-        <v>26</v>
-      </c>
-      <c r="L35" t="s">
-        <v>26</v>
-      </c>
-      <c r="M35" t="s">
-        <v>26</v>
+        <v>1061</v>
+      </c>
+      <c r="L35" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>452.91</v>
       </c>
       <c r="N35" t="s">
         <v>26</v>
       </c>
       <c r="O35" t="s">
-        <v>267</v>
+        <v>291</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>268</v>
+        <v>292</v>
       </c>
       <c r="B36" t="s">
-        <v>269</v>
+        <v>293</v>
       </c>
       <c r="C36" t="s">
-        <v>270</v>
+        <v>294</v>
       </c>
       <c r="D36" t="s">
         <v>19</v>
@@ -5282,45 +5285,45 @@
         <v>20</v>
       </c>
       <c r="F36" t="s">
-        <v>271</v>
+        <v>295</v>
       </c>
       <c r="G36" t="s">
-        <v>272</v>
+        <v>296</v>
       </c>
       <c r="H36" t="s">
-        <v>273</v>
+        <v>297</v>
       </c>
       <c r="I36" t="s">
         <v>24</v>
       </c>
       <c r="J36" t="s">
-        <v>274</v>
+        <v>298</v>
       </c>
       <c r="K36" t="s">
-        <v>26</v>
-      </c>
-      <c r="L36" t="s">
-        <v>26</v>
-      </c>
-      <c r="M36" t="s">
-        <v>26</v>
+        <v>1061</v>
+      </c>
+      <c r="L36" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>418.64</v>
       </c>
       <c r="N36" t="s">
         <v>26</v>
       </c>
       <c r="O36" t="s">
-        <v>275</v>
+        <v>299</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>276</v>
+        <v>300</v>
       </c>
       <c r="B37" t="s">
-        <v>277</v>
+        <v>301</v>
       </c>
       <c r="C37" t="s">
-        <v>278</v>
+        <v>302</v>
       </c>
       <c r="D37" t="s">
         <v>19</v>
@@ -5329,45 +5332,45 @@
         <v>20</v>
       </c>
       <c r="F37" t="s">
-        <v>279</v>
+        <v>303</v>
       </c>
       <c r="G37" t="s">
-        <v>280</v>
+        <v>304</v>
       </c>
       <c r="H37" t="s">
-        <v>281</v>
+        <v>305</v>
       </c>
       <c r="I37" t="s">
         <v>24</v>
       </c>
       <c r="J37" t="s">
-        <v>282</v>
+        <v>306</v>
       </c>
       <c r="K37" t="s">
-        <v>26</v>
-      </c>
-      <c r="L37" t="s">
-        <v>26</v>
-      </c>
-      <c r="M37" t="s">
-        <v>26</v>
+        <v>1061</v>
+      </c>
+      <c r="L37" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>693.38</v>
       </c>
       <c r="N37" t="s">
         <v>26</v>
       </c>
       <c r="O37" t="s">
-        <v>283</v>
+        <v>307</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>284</v>
+        <v>308</v>
       </c>
       <c r="B38" t="s">
-        <v>285</v>
+        <v>309</v>
       </c>
       <c r="C38" t="s">
-        <v>286</v>
+        <v>310</v>
       </c>
       <c r="D38" t="s">
         <v>19</v>
@@ -5376,45 +5379,45 @@
         <v>20</v>
       </c>
       <c r="F38" t="s">
-        <v>287</v>
+        <v>311</v>
       </c>
       <c r="G38" t="s">
-        <v>288</v>
+        <v>312</v>
       </c>
       <c r="H38" t="s">
-        <v>289</v>
+        <v>313</v>
       </c>
       <c r="I38" t="s">
         <v>24</v>
       </c>
       <c r="J38" t="s">
-        <v>290</v>
+        <v>314</v>
       </c>
       <c r="K38" t="s">
-        <v>26</v>
-      </c>
-      <c r="L38" t="s">
-        <v>26</v>
-      </c>
-      <c r="M38" t="s">
-        <v>26</v>
+        <v>1061</v>
+      </c>
+      <c r="L38" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>437.66</v>
       </c>
       <c r="N38" t="s">
         <v>26</v>
       </c>
       <c r="O38" t="s">
-        <v>291</v>
+        <v>315</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>292</v>
+        <v>316</v>
       </c>
       <c r="B39" t="s">
-        <v>293</v>
+        <v>317</v>
       </c>
       <c r="C39" t="s">
-        <v>294</v>
+        <v>318</v>
       </c>
       <c r="D39" t="s">
         <v>19</v>
@@ -5423,45 +5426,45 @@
         <v>20</v>
       </c>
       <c r="F39" t="s">
-        <v>295</v>
+        <v>319</v>
       </c>
       <c r="G39" t="s">
-        <v>296</v>
+        <v>320</v>
       </c>
       <c r="H39" t="s">
-        <v>297</v>
+        <v>321</v>
       </c>
       <c r="I39" t="s">
         <v>24</v>
       </c>
       <c r="J39" t="s">
-        <v>298</v>
+        <v>322</v>
       </c>
       <c r="K39" t="s">
-        <v>26</v>
-      </c>
-      <c r="L39" t="s">
-        <v>26</v>
-      </c>
-      <c r="M39" t="s">
-        <v>26</v>
+        <v>1061</v>
+      </c>
+      <c r="L39" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>771.26</v>
       </c>
       <c r="N39" t="s">
         <v>26</v>
       </c>
       <c r="O39" t="s">
-        <v>299</v>
+        <v>323</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>300</v>
+        <v>324</v>
       </c>
       <c r="B40" t="s">
-        <v>301</v>
+        <v>325</v>
       </c>
       <c r="C40" t="s">
-        <v>302</v>
+        <v>326</v>
       </c>
       <c r="D40" t="s">
         <v>19</v>
@@ -5470,45 +5473,45 @@
         <v>20</v>
       </c>
       <c r="F40" t="s">
-        <v>303</v>
+        <v>327</v>
       </c>
       <c r="G40" t="s">
-        <v>304</v>
+        <v>328</v>
       </c>
       <c r="H40" t="s">
-        <v>305</v>
+        <v>329</v>
       </c>
       <c r="I40" t="s">
         <v>24</v>
       </c>
       <c r="J40" t="s">
-        <v>306</v>
+        <v>330</v>
       </c>
       <c r="K40" t="s">
-        <v>26</v>
-      </c>
-      <c r="L40" t="s">
-        <v>26</v>
-      </c>
-      <c r="M40" t="s">
-        <v>26</v>
+        <v>1061</v>
+      </c>
+      <c r="L40" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>892.57</v>
       </c>
       <c r="N40" t="s">
         <v>26</v>
       </c>
       <c r="O40" t="s">
-        <v>307</v>
+        <v>84</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>308</v>
+        <v>331</v>
       </c>
       <c r="B41" t="s">
-        <v>309</v>
+        <v>332</v>
       </c>
       <c r="C41" t="s">
-        <v>310</v>
+        <v>333</v>
       </c>
       <c r="D41" t="s">
         <v>19</v>
@@ -5517,45 +5520,45 @@
         <v>20</v>
       </c>
       <c r="F41" t="s">
-        <v>311</v>
+        <v>334</v>
       </c>
       <c r="G41" t="s">
-        <v>312</v>
+        <v>335</v>
       </c>
       <c r="H41" t="s">
-        <v>313</v>
+        <v>336</v>
       </c>
       <c r="I41" t="s">
         <v>24</v>
       </c>
       <c r="J41" t="s">
-        <v>314</v>
+        <v>337</v>
       </c>
       <c r="K41" t="s">
-        <v>26</v>
-      </c>
-      <c r="L41" t="s">
-        <v>26</v>
-      </c>
-      <c r="M41" t="s">
-        <v>26</v>
+        <v>1061</v>
+      </c>
+      <c r="L41" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>494.03</v>
       </c>
       <c r="N41" t="s">
         <v>26</v>
       </c>
       <c r="O41" t="s">
-        <v>315</v>
+        <v>84</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>316</v>
+        <v>351</v>
       </c>
       <c r="B42" t="s">
-        <v>317</v>
+        <v>352</v>
       </c>
       <c r="C42" t="s">
-        <v>318</v>
+        <v>353</v>
       </c>
       <c r="D42" t="s">
         <v>19</v>
@@ -5564,45 +5567,45 @@
         <v>20</v>
       </c>
       <c r="F42" t="s">
-        <v>319</v>
+        <v>354</v>
       </c>
       <c r="G42" t="s">
-        <v>320</v>
+        <v>355</v>
       </c>
       <c r="H42" t="s">
-        <v>321</v>
+        <v>356</v>
       </c>
       <c r="I42" t="s">
         <v>24</v>
       </c>
       <c r="J42" t="s">
-        <v>322</v>
+        <v>357</v>
       </c>
       <c r="K42" t="s">
         <v>26</v>
       </c>
-      <c r="L42" t="s">
-        <v>26</v>
-      </c>
-      <c r="M42" t="s">
-        <v>26</v>
+      <c r="L42" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>335.08</v>
       </c>
       <c r="N42" t="s">
         <v>26</v>
       </c>
       <c r="O42" t="s">
-        <v>323</v>
+        <v>358</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>324</v>
+        <v>359</v>
       </c>
       <c r="B43" t="s">
-        <v>325</v>
+        <v>360</v>
       </c>
       <c r="C43" t="s">
-        <v>326</v>
+        <v>361</v>
       </c>
       <c r="D43" t="s">
         <v>19</v>
@@ -5611,45 +5614,45 @@
         <v>20</v>
       </c>
       <c r="F43" t="s">
-        <v>327</v>
+        <v>362</v>
       </c>
       <c r="G43" t="s">
-        <v>328</v>
+        <v>363</v>
       </c>
       <c r="H43" t="s">
-        <v>329</v>
+        <v>364</v>
       </c>
       <c r="I43" t="s">
         <v>24</v>
       </c>
       <c r="J43" t="s">
-        <v>330</v>
+        <v>365</v>
       </c>
       <c r="K43" t="s">
-        <v>26</v>
-      </c>
-      <c r="L43" t="s">
-        <v>26</v>
-      </c>
-      <c r="M43" t="s">
-        <v>26</v>
+        <v>1061</v>
+      </c>
+      <c r="L43" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>2502.6</v>
       </c>
       <c r="N43" t="s">
         <v>26</v>
       </c>
       <c r="O43" t="s">
-        <v>84</v>
+        <v>366</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>331</v>
+        <v>378</v>
       </c>
       <c r="B44" t="s">
-        <v>332</v>
+        <v>379</v>
       </c>
       <c r="C44" t="s">
-        <v>333</v>
+        <v>380</v>
       </c>
       <c r="D44" t="s">
         <v>19</v>
@@ -5658,45 +5661,45 @@
         <v>20</v>
       </c>
       <c r="F44" t="s">
-        <v>334</v>
+        <v>381</v>
       </c>
       <c r="G44" t="s">
-        <v>335</v>
+        <v>382</v>
       </c>
       <c r="H44" t="s">
-        <v>336</v>
+        <v>383</v>
       </c>
       <c r="I44" t="s">
         <v>24</v>
       </c>
       <c r="J44" t="s">
-        <v>337</v>
+        <v>384</v>
       </c>
       <c r="K44" t="s">
         <v>26</v>
       </c>
-      <c r="L44" t="s">
-        <v>26</v>
-      </c>
-      <c r="M44" t="s">
-        <v>26</v>
+      <c r="L44" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>1097.63</v>
       </c>
       <c r="N44" t="s">
         <v>26</v>
       </c>
       <c r="O44" t="s">
-        <v>84</v>
+        <v>385</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>338</v>
+        <v>393</v>
       </c>
       <c r="B45" t="s">
-        <v>339</v>
+        <v>394</v>
       </c>
       <c r="C45" t="s">
-        <v>340</v>
+        <v>395</v>
       </c>
       <c r="D45" t="s">
         <v>19</v>
@@ -5705,45 +5708,45 @@
         <v>20</v>
       </c>
       <c r="F45" t="s">
-        <v>341</v>
+        <v>396</v>
       </c>
       <c r="G45" t="s">
-        <v>342</v>
+        <v>397</v>
       </c>
       <c r="H45" t="s">
-        <v>343</v>
+        <v>398</v>
       </c>
       <c r="I45" t="s">
         <v>24</v>
       </c>
       <c r="J45" t="s">
-        <v>344</v>
+        <v>399</v>
       </c>
       <c r="K45" t="s">
-        <v>26</v>
-      </c>
-      <c r="L45" t="s">
-        <v>26</v>
-      </c>
-      <c r="M45" t="s">
-        <v>26</v>
+        <v>1061</v>
+      </c>
+      <c r="L45" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>327.93</v>
       </c>
       <c r="N45" t="s">
         <v>26</v>
       </c>
       <c r="O45" t="s">
-        <v>345</v>
+        <v>400</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>338</v>
+        <v>401</v>
       </c>
       <c r="B46" t="s">
-        <v>339</v>
+        <v>402</v>
       </c>
       <c r="C46" t="s">
-        <v>340</v>
+        <v>403</v>
       </c>
       <c r="D46" t="s">
         <v>19</v>
@@ -5752,45 +5755,45 @@
         <v>20</v>
       </c>
       <c r="F46" t="s">
-        <v>346</v>
+        <v>404</v>
       </c>
       <c r="G46" t="s">
-        <v>347</v>
+        <v>405</v>
       </c>
       <c r="H46" t="s">
-        <v>348</v>
+        <v>406</v>
       </c>
       <c r="I46" t="s">
         <v>24</v>
       </c>
       <c r="J46" t="s">
-        <v>349</v>
+        <v>407</v>
       </c>
       <c r="K46" t="s">
         <v>26</v>
       </c>
-      <c r="L46" t="s">
-        <v>26</v>
-      </c>
-      <c r="M46" t="s">
-        <v>26</v>
+      <c r="L46" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>731.29</v>
       </c>
       <c r="N46" t="s">
         <v>26</v>
       </c>
       <c r="O46" t="s">
-        <v>350</v>
+        <v>408</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>351</v>
+        <v>409</v>
       </c>
       <c r="B47" t="s">
-        <v>352</v>
+        <v>410</v>
       </c>
       <c r="C47" t="s">
-        <v>353</v>
+        <v>411</v>
       </c>
       <c r="D47" t="s">
         <v>19</v>
@@ -5799,45 +5802,45 @@
         <v>20</v>
       </c>
       <c r="F47" t="s">
-        <v>354</v>
+        <v>412</v>
       </c>
       <c r="G47" t="s">
-        <v>355</v>
+        <v>413</v>
       </c>
       <c r="H47" t="s">
-        <v>356</v>
+        <v>414</v>
       </c>
       <c r="I47" t="s">
         <v>24</v>
       </c>
       <c r="J47" t="s">
-        <v>357</v>
+        <v>415</v>
       </c>
       <c r="K47" t="s">
-        <v>26</v>
-      </c>
-      <c r="L47" t="s">
-        <v>26</v>
-      </c>
-      <c r="M47" t="s">
-        <v>26</v>
+        <v>1061</v>
+      </c>
+      <c r="L47" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M47" t="n">
+        <v>1144.0</v>
       </c>
       <c r="N47" t="s">
         <v>26</v>
       </c>
       <c r="O47" t="s">
-        <v>358</v>
+        <v>416</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>359</v>
+        <v>417</v>
       </c>
       <c r="B48" t="s">
-        <v>360</v>
+        <v>418</v>
       </c>
       <c r="C48" t="s">
-        <v>361</v>
+        <v>419</v>
       </c>
       <c r="D48" t="s">
         <v>19</v>
@@ -5846,45 +5849,45 @@
         <v>20</v>
       </c>
       <c r="F48" t="s">
-        <v>362</v>
+        <v>420</v>
       </c>
       <c r="G48" t="s">
-        <v>363</v>
+        <v>421</v>
       </c>
       <c r="H48" t="s">
-        <v>364</v>
+        <v>422</v>
       </c>
       <c r="I48" t="s">
         <v>24</v>
       </c>
       <c r="J48" t="s">
-        <v>365</v>
+        <v>423</v>
       </c>
       <c r="K48" t="s">
-        <v>26</v>
-      </c>
-      <c r="L48" t="s">
-        <v>26</v>
-      </c>
-      <c r="M48" t="s">
-        <v>26</v>
+        <v>1061</v>
+      </c>
+      <c r="L48" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M48" t="n">
+        <v>615.31</v>
       </c>
       <c r="N48" t="s">
         <v>26</v>
       </c>
       <c r="O48" t="s">
-        <v>366</v>
+        <v>424</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>367</v>
+        <v>425</v>
       </c>
       <c r="B49" t="s">
-        <v>339</v>
+        <v>426</v>
       </c>
       <c r="C49" t="s">
-        <v>340</v>
+        <v>427</v>
       </c>
       <c r="D49" t="s">
         <v>19</v>
@@ -5893,45 +5896,45 @@
         <v>20</v>
       </c>
       <c r="F49" t="s">
-        <v>368</v>
+        <v>428</v>
       </c>
       <c r="G49" t="s">
-        <v>369</v>
+        <v>429</v>
       </c>
       <c r="H49" t="s">
-        <v>370</v>
+        <v>430</v>
       </c>
       <c r="I49" t="s">
         <v>24</v>
       </c>
       <c r="J49" t="s">
-        <v>371</v>
+        <v>431</v>
       </c>
       <c r="K49" t="s">
-        <v>26</v>
-      </c>
-      <c r="L49" t="s">
-        <v>26</v>
-      </c>
-      <c r="M49" t="s">
-        <v>26</v>
+        <v>1061</v>
+      </c>
+      <c r="L49" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M49" t="n">
+        <v>966.61</v>
       </c>
       <c r="N49" t="s">
         <v>26</v>
       </c>
       <c r="O49" t="s">
-        <v>372</v>
+        <v>432</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>367</v>
+        <v>433</v>
       </c>
       <c r="B50" t="s">
-        <v>339</v>
+        <v>434</v>
       </c>
       <c r="C50" t="s">
-        <v>340</v>
+        <v>435</v>
       </c>
       <c r="D50" t="s">
         <v>19</v>
@@ -5940,45 +5943,45 @@
         <v>20</v>
       </c>
       <c r="F50" t="s">
-        <v>373</v>
+        <v>436</v>
       </c>
       <c r="G50" t="s">
-        <v>374</v>
+        <v>437</v>
       </c>
       <c r="H50" t="s">
-        <v>375</v>
+        <v>438</v>
       </c>
       <c r="I50" t="s">
         <v>24</v>
       </c>
       <c r="J50" t="s">
-        <v>376</v>
+        <v>439</v>
       </c>
       <c r="K50" t="s">
-        <v>26</v>
-      </c>
-      <c r="L50" t="s">
-        <v>26</v>
-      </c>
-      <c r="M50" t="s">
-        <v>26</v>
+        <v>1061</v>
+      </c>
+      <c r="L50" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M50" t="n">
+        <v>273.09</v>
       </c>
       <c r="N50" t="s">
         <v>26</v>
       </c>
       <c r="O50" t="s">
-        <v>377</v>
+        <v>440</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>378</v>
+        <v>441</v>
       </c>
       <c r="B51" t="s">
-        <v>379</v>
+        <v>442</v>
       </c>
       <c r="C51" t="s">
-        <v>380</v>
+        <v>443</v>
       </c>
       <c r="D51" t="s">
         <v>19</v>
@@ -5987,45 +5990,45 @@
         <v>20</v>
       </c>
       <c r="F51" t="s">
-        <v>381</v>
+        <v>444</v>
       </c>
       <c r="G51" t="s">
-        <v>382</v>
+        <v>445</v>
       </c>
       <c r="H51" t="s">
-        <v>383</v>
+        <v>446</v>
       </c>
       <c r="I51" t="s">
         <v>24</v>
       </c>
       <c r="J51" t="s">
-        <v>384</v>
+        <v>447</v>
       </c>
       <c r="K51" t="s">
-        <v>26</v>
-      </c>
-      <c r="L51" t="s">
-        <v>26</v>
-      </c>
-      <c r="M51" t="s">
-        <v>26</v>
+        <v>1061</v>
+      </c>
+      <c r="L51" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M51" t="n">
+        <v>1193.07</v>
       </c>
       <c r="N51" t="s">
         <v>26</v>
       </c>
       <c r="O51" t="s">
-        <v>385</v>
+        <v>448</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>386</v>
+        <v>449</v>
       </c>
       <c r="B52" t="s">
-        <v>387</v>
+        <v>450</v>
       </c>
       <c r="C52" t="s">
-        <v>388</v>
+        <v>451</v>
       </c>
       <c r="D52" t="s">
         <v>19</v>
@@ -6034,45 +6037,45 @@
         <v>20</v>
       </c>
       <c r="F52" t="s">
-        <v>389</v>
+        <v>452</v>
       </c>
       <c r="G52" t="s">
-        <v>390</v>
+        <v>453</v>
       </c>
       <c r="H52" t="s">
-        <v>391</v>
+        <v>454</v>
       </c>
       <c r="I52" t="s">
         <v>24</v>
       </c>
       <c r="J52" t="s">
-        <v>392</v>
+        <v>455</v>
       </c>
       <c r="K52" t="s">
-        <v>26</v>
-      </c>
-      <c r="L52" t="s">
-        <v>26</v>
-      </c>
-      <c r="M52" t="s">
-        <v>26</v>
+        <v>1061</v>
+      </c>
+      <c r="L52" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M52" t="n">
+        <v>861.91</v>
       </c>
       <c r="N52" t="s">
         <v>26</v>
       </c>
       <c r="O52" t="s">
-        <v>84</v>
+        <v>456</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>393</v>
+        <v>457</v>
       </c>
       <c r="B53" t="s">
-        <v>394</v>
+        <v>458</v>
       </c>
       <c r="C53" t="s">
-        <v>395</v>
+        <v>459</v>
       </c>
       <c r="D53" t="s">
         <v>19</v>
@@ -6081,45 +6084,45 @@
         <v>20</v>
       </c>
       <c r="F53" t="s">
-        <v>396</v>
+        <v>460</v>
       </c>
       <c r="G53" t="s">
-        <v>397</v>
+        <v>461</v>
       </c>
       <c r="H53" t="s">
-        <v>398</v>
+        <v>462</v>
       </c>
       <c r="I53" t="s">
         <v>24</v>
       </c>
       <c r="J53" t="s">
-        <v>399</v>
+        <v>463</v>
       </c>
       <c r="K53" t="s">
-        <v>26</v>
-      </c>
-      <c r="L53" t="s">
-        <v>26</v>
-      </c>
-      <c r="M53" t="s">
-        <v>26</v>
+        <v>1061</v>
+      </c>
+      <c r="L53" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M53" t="n">
+        <v>370.75</v>
       </c>
       <c r="N53" t="s">
         <v>26</v>
       </c>
       <c r="O53" t="s">
-        <v>400</v>
+        <v>464</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>401</v>
+        <v>465</v>
       </c>
       <c r="B54" t="s">
-        <v>402</v>
+        <v>466</v>
       </c>
       <c r="C54" t="s">
-        <v>403</v>
+        <v>467</v>
       </c>
       <c r="D54" t="s">
         <v>19</v>
@@ -6128,45 +6131,45 @@
         <v>20</v>
       </c>
       <c r="F54" t="s">
-        <v>404</v>
+        <v>468</v>
       </c>
       <c r="G54" t="s">
-        <v>405</v>
+        <v>469</v>
       </c>
       <c r="H54" t="s">
-        <v>406</v>
+        <v>470</v>
       </c>
       <c r="I54" t="s">
         <v>24</v>
       </c>
       <c r="J54" t="s">
-        <v>407</v>
+        <v>471</v>
       </c>
       <c r="K54" t="s">
-        <v>26</v>
-      </c>
-      <c r="L54" t="s">
-        <v>26</v>
-      </c>
-      <c r="M54" t="s">
-        <v>26</v>
+        <v>1061</v>
+      </c>
+      <c r="L54" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M54" t="n">
+        <v>564.41</v>
       </c>
       <c r="N54" t="s">
         <v>26</v>
       </c>
       <c r="O54" t="s">
-        <v>408</v>
+        <v>84</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>409</v>
+        <v>472</v>
       </c>
       <c r="B55" t="s">
-        <v>410</v>
+        <v>473</v>
       </c>
       <c r="C55" t="s">
-        <v>411</v>
+        <v>474</v>
       </c>
       <c r="D55" t="s">
         <v>19</v>
@@ -6175,45 +6178,45 @@
         <v>20</v>
       </c>
       <c r="F55" t="s">
-        <v>412</v>
+        <v>475</v>
       </c>
       <c r="G55" t="s">
-        <v>413</v>
+        <v>476</v>
       </c>
       <c r="H55" t="s">
-        <v>414</v>
+        <v>477</v>
       </c>
       <c r="I55" t="s">
         <v>24</v>
       </c>
       <c r="J55" t="s">
-        <v>415</v>
+        <v>478</v>
       </c>
       <c r="K55" t="s">
-        <v>26</v>
-      </c>
-      <c r="L55" t="s">
-        <v>26</v>
-      </c>
-      <c r="M55" t="s">
-        <v>26</v>
+        <v>1061</v>
+      </c>
+      <c r="L55" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M55" t="n">
+        <v>1007.31</v>
       </c>
       <c r="N55" t="s">
         <v>26</v>
       </c>
       <c r="O55" t="s">
-        <v>416</v>
+        <v>479</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>417</v>
+        <v>480</v>
       </c>
       <c r="B56" t="s">
-        <v>418</v>
+        <v>481</v>
       </c>
       <c r="C56" t="s">
-        <v>419</v>
+        <v>482</v>
       </c>
       <c r="D56" t="s">
         <v>19</v>
@@ -6222,45 +6225,45 @@
         <v>20</v>
       </c>
       <c r="F56" t="s">
-        <v>420</v>
+        <v>483</v>
       </c>
       <c r="G56" t="s">
-        <v>421</v>
+        <v>484</v>
       </c>
       <c r="H56" t="s">
-        <v>422</v>
+        <v>485</v>
       </c>
       <c r="I56" t="s">
         <v>24</v>
       </c>
       <c r="J56" t="s">
-        <v>423</v>
+        <v>486</v>
       </c>
       <c r="K56" t="s">
-        <v>26</v>
-      </c>
-      <c r="L56" t="s">
-        <v>26</v>
-      </c>
-      <c r="M56" t="s">
-        <v>26</v>
+        <v>1061</v>
+      </c>
+      <c r="L56" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M56" t="n">
+        <v>371.86</v>
       </c>
       <c r="N56" t="s">
         <v>26</v>
       </c>
       <c r="O56" t="s">
-        <v>424</v>
+        <v>487</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>425</v>
+        <v>488</v>
       </c>
       <c r="B57" t="s">
-        <v>426</v>
+        <v>489</v>
       </c>
       <c r="C57" t="s">
-        <v>427</v>
+        <v>490</v>
       </c>
       <c r="D57" t="s">
         <v>19</v>
@@ -6269,45 +6272,45 @@
         <v>20</v>
       </c>
       <c r="F57" t="s">
-        <v>428</v>
+        <v>491</v>
       </c>
       <c r="G57" t="s">
-        <v>429</v>
+        <v>492</v>
       </c>
       <c r="H57" t="s">
-        <v>430</v>
+        <v>493</v>
       </c>
       <c r="I57" t="s">
         <v>24</v>
       </c>
       <c r="J57" t="s">
-        <v>431</v>
+        <v>494</v>
       </c>
       <c r="K57" t="s">
-        <v>26</v>
-      </c>
-      <c r="L57" t="s">
-        <v>26</v>
-      </c>
-      <c r="M57" t="s">
-        <v>26</v>
+        <v>1061</v>
+      </c>
+      <c r="L57" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M57" t="n">
+        <v>1324.24</v>
       </c>
       <c r="N57" t="s">
         <v>26</v>
       </c>
       <c r="O57" t="s">
-        <v>432</v>
+        <v>495</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>433</v>
+        <v>496</v>
       </c>
       <c r="B58" t="s">
-        <v>434</v>
+        <v>497</v>
       </c>
       <c r="C58" t="s">
-        <v>435</v>
+        <v>498</v>
       </c>
       <c r="D58" t="s">
         <v>19</v>
@@ -6316,45 +6319,45 @@
         <v>20</v>
       </c>
       <c r="F58" t="s">
-        <v>436</v>
+        <v>499</v>
       </c>
       <c r="G58" t="s">
-        <v>437</v>
+        <v>500</v>
       </c>
       <c r="H58" t="s">
-        <v>438</v>
+        <v>501</v>
       </c>
       <c r="I58" t="s">
         <v>24</v>
       </c>
       <c r="J58" t="s">
-        <v>439</v>
+        <v>502</v>
       </c>
       <c r="K58" t="s">
-        <v>26</v>
-      </c>
-      <c r="L58" t="s">
-        <v>26</v>
-      </c>
-      <c r="M58" t="s">
-        <v>26</v>
+        <v>1061</v>
+      </c>
+      <c r="L58" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M58" t="n">
+        <v>3896.02</v>
       </c>
       <c r="N58" t="s">
         <v>26</v>
       </c>
       <c r="O58" t="s">
-        <v>440</v>
+        <v>503</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>441</v>
+        <v>504</v>
       </c>
       <c r="B59" t="s">
-        <v>442</v>
+        <v>505</v>
       </c>
       <c r="C59" t="s">
-        <v>443</v>
+        <v>506</v>
       </c>
       <c r="D59" t="s">
         <v>19</v>
@@ -6363,45 +6366,45 @@
         <v>20</v>
       </c>
       <c r="F59" t="s">
-        <v>444</v>
+        <v>507</v>
       </c>
       <c r="G59" t="s">
-        <v>445</v>
+        <v>508</v>
       </c>
       <c r="H59" t="s">
-        <v>446</v>
+        <v>509</v>
       </c>
       <c r="I59" t="s">
         <v>24</v>
       </c>
       <c r="J59" t="s">
-        <v>447</v>
+        <v>510</v>
       </c>
       <c r="K59" t="s">
-        <v>26</v>
-      </c>
-      <c r="L59" t="s">
-        <v>26</v>
-      </c>
-      <c r="M59" t="s">
-        <v>26</v>
+        <v>1061</v>
+      </c>
+      <c r="L59" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M59" t="n">
+        <v>1325.21</v>
       </c>
       <c r="N59" t="s">
         <v>26</v>
       </c>
       <c r="O59" t="s">
-        <v>448</v>
+        <v>511</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>449</v>
+        <v>512</v>
       </c>
       <c r="B60" t="s">
-        <v>450</v>
+        <v>513</v>
       </c>
       <c r="C60" t="s">
-        <v>451</v>
+        <v>514</v>
       </c>
       <c r="D60" t="s">
         <v>19</v>
@@ -6410,45 +6413,45 @@
         <v>20</v>
       </c>
       <c r="F60" t="s">
-        <v>452</v>
+        <v>515</v>
       </c>
       <c r="G60" t="s">
-        <v>453</v>
+        <v>516</v>
       </c>
       <c r="H60" t="s">
-        <v>454</v>
+        <v>517</v>
       </c>
       <c r="I60" t="s">
         <v>24</v>
       </c>
       <c r="J60" t="s">
-        <v>455</v>
+        <v>518</v>
       </c>
       <c r="K60" t="s">
-        <v>26</v>
-      </c>
-      <c r="L60" t="s">
-        <v>26</v>
-      </c>
-      <c r="M60" t="s">
-        <v>26</v>
+        <v>1061</v>
+      </c>
+      <c r="L60" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M60" t="n">
+        <v>148.75</v>
       </c>
       <c r="N60" t="s">
         <v>26</v>
       </c>
       <c r="O60" t="s">
-        <v>456</v>
+        <v>519</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>457</v>
+        <v>520</v>
       </c>
       <c r="B61" t="s">
-        <v>458</v>
+        <v>521</v>
       </c>
       <c r="C61" t="s">
-        <v>459</v>
+        <v>522</v>
       </c>
       <c r="D61" t="s">
         <v>19</v>
@@ -6457,45 +6460,45 @@
         <v>20</v>
       </c>
       <c r="F61" t="s">
-        <v>460</v>
+        <v>523</v>
       </c>
       <c r="G61" t="s">
-        <v>461</v>
+        <v>524</v>
       </c>
       <c r="H61" t="s">
-        <v>462</v>
+        <v>525</v>
       </c>
       <c r="I61" t="s">
         <v>24</v>
       </c>
       <c r="J61" t="s">
-        <v>463</v>
+        <v>526</v>
       </c>
       <c r="K61" t="s">
-        <v>26</v>
-      </c>
-      <c r="L61" t="s">
-        <v>26</v>
-      </c>
-      <c r="M61" t="s">
-        <v>26</v>
+        <v>1061</v>
+      </c>
+      <c r="L61" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M61" t="n">
+        <v>336.92</v>
       </c>
       <c r="N61" t="s">
         <v>26</v>
       </c>
       <c r="O61" t="s">
-        <v>464</v>
+        <v>527</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>465</v>
+        <v>542</v>
       </c>
       <c r="B62" t="s">
-        <v>466</v>
+        <v>543</v>
       </c>
       <c r="C62" t="s">
-        <v>467</v>
+        <v>544</v>
       </c>
       <c r="D62" t="s">
         <v>19</v>
@@ -6504,45 +6507,45 @@
         <v>20</v>
       </c>
       <c r="F62" t="s">
-        <v>468</v>
+        <v>545</v>
       </c>
       <c r="G62" t="s">
-        <v>469</v>
+        <v>546</v>
       </c>
       <c r="H62" t="s">
-        <v>470</v>
+        <v>547</v>
       </c>
       <c r="I62" t="s">
         <v>24</v>
       </c>
       <c r="J62" t="s">
-        <v>471</v>
+        <v>548</v>
       </c>
       <c r="K62" t="s">
-        <v>26</v>
-      </c>
-      <c r="L62" t="s">
-        <v>26</v>
-      </c>
-      <c r="M62" t="s">
-        <v>26</v>
+        <v>1061</v>
+      </c>
+      <c r="L62" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M62" t="n">
+        <v>965.83</v>
       </c>
       <c r="N62" t="s">
         <v>26</v>
       </c>
       <c r="O62" t="s">
-        <v>84</v>
+        <v>549</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>472</v>
+        <v>550</v>
       </c>
       <c r="B63" t="s">
-        <v>473</v>
+        <v>551</v>
       </c>
       <c r="C63" t="s">
-        <v>474</v>
+        <v>552</v>
       </c>
       <c r="D63" t="s">
         <v>19</v>
@@ -6551,45 +6554,45 @@
         <v>20</v>
       </c>
       <c r="F63" t="s">
-        <v>475</v>
+        <v>553</v>
       </c>
       <c r="G63" t="s">
-        <v>476</v>
+        <v>554</v>
       </c>
       <c r="H63" t="s">
-        <v>477</v>
+        <v>555</v>
       </c>
       <c r="I63" t="s">
         <v>24</v>
       </c>
       <c r="J63" t="s">
-        <v>478</v>
+        <v>556</v>
       </c>
       <c r="K63" t="s">
-        <v>26</v>
-      </c>
-      <c r="L63" t="s">
-        <v>26</v>
-      </c>
-      <c r="M63" t="s">
-        <v>26</v>
+        <v>1061</v>
+      </c>
+      <c r="L63" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M63" t="n">
+        <v>3126.08</v>
       </c>
       <c r="N63" t="s">
         <v>26</v>
       </c>
       <c r="O63" t="s">
-        <v>479</v>
+        <v>557</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>480</v>
+        <v>558</v>
       </c>
       <c r="B64" t="s">
-        <v>481</v>
+        <v>559</v>
       </c>
       <c r="C64" t="s">
-        <v>482</v>
+        <v>560</v>
       </c>
       <c r="D64" t="s">
         <v>19</v>
@@ -6598,45 +6601,45 @@
         <v>20</v>
       </c>
       <c r="F64" t="s">
-        <v>483</v>
+        <v>561</v>
       </c>
       <c r="G64" t="s">
-        <v>484</v>
+        <v>562</v>
       </c>
       <c r="H64" t="s">
-        <v>485</v>
+        <v>563</v>
       </c>
       <c r="I64" t="s">
         <v>24</v>
       </c>
       <c r="J64" t="s">
-        <v>486</v>
+        <v>564</v>
       </c>
       <c r="K64" t="s">
-        <v>26</v>
-      </c>
-      <c r="L64" t="s">
-        <v>26</v>
-      </c>
-      <c r="M64" t="s">
-        <v>26</v>
+        <v>1061</v>
+      </c>
+      <c r="L64" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M64" t="n">
+        <v>1421.93</v>
       </c>
       <c r="N64" t="s">
         <v>26</v>
       </c>
       <c r="O64" t="s">
-        <v>487</v>
+        <v>565</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>488</v>
+        <v>566</v>
       </c>
       <c r="B65" t="s">
-        <v>489</v>
+        <v>567</v>
       </c>
       <c r="C65" t="s">
-        <v>490</v>
+        <v>568</v>
       </c>
       <c r="D65" t="s">
         <v>19</v>
@@ -6645,45 +6648,45 @@
         <v>20</v>
       </c>
       <c r="F65" t="s">
-        <v>491</v>
+        <v>569</v>
       </c>
       <c r="G65" t="s">
-        <v>492</v>
+        <v>570</v>
       </c>
       <c r="H65" t="s">
-        <v>493</v>
+        <v>571</v>
       </c>
       <c r="I65" t="s">
         <v>24</v>
       </c>
       <c r="J65" t="s">
-        <v>494</v>
+        <v>572</v>
       </c>
       <c r="K65" t="s">
-        <v>26</v>
-      </c>
-      <c r="L65" t="s">
-        <v>26</v>
-      </c>
-      <c r="M65" t="s">
-        <v>26</v>
+        <v>1061</v>
+      </c>
+      <c r="L65" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M65" t="n">
+        <v>176.26</v>
       </c>
       <c r="N65" t="s">
         <v>26</v>
       </c>
       <c r="O65" t="s">
-        <v>495</v>
+        <v>573</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>496</v>
+        <v>574</v>
       </c>
       <c r="B66" t="s">
-        <v>497</v>
+        <v>575</v>
       </c>
       <c r="C66" t="s">
-        <v>498</v>
+        <v>576</v>
       </c>
       <c r="D66" t="s">
         <v>19</v>
@@ -6692,45 +6695,45 @@
         <v>20</v>
       </c>
       <c r="F66" t="s">
-        <v>499</v>
+        <v>577</v>
       </c>
       <c r="G66" t="s">
-        <v>500</v>
+        <v>578</v>
       </c>
       <c r="H66" t="s">
-        <v>501</v>
+        <v>579</v>
       </c>
       <c r="I66" t="s">
         <v>24</v>
       </c>
       <c r="J66" t="s">
-        <v>502</v>
+        <v>580</v>
       </c>
       <c r="K66" t="s">
-        <v>26</v>
-      </c>
-      <c r="L66" t="s">
-        <v>26</v>
-      </c>
-      <c r="M66" t="s">
-        <v>26</v>
+        <v>1061</v>
+      </c>
+      <c r="L66" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M66" t="n">
+        <v>1119.99</v>
       </c>
       <c r="N66" t="s">
         <v>26</v>
       </c>
       <c r="O66" t="s">
-        <v>503</v>
+        <v>581</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>504</v>
+        <v>582</v>
       </c>
       <c r="B67" t="s">
-        <v>505</v>
+        <v>583</v>
       </c>
       <c r="C67" t="s">
-        <v>506</v>
+        <v>584</v>
       </c>
       <c r="D67" t="s">
         <v>19</v>
@@ -6739,45 +6742,45 @@
         <v>20</v>
       </c>
       <c r="F67" t="s">
-        <v>507</v>
+        <v>585</v>
       </c>
       <c r="G67" t="s">
-        <v>508</v>
+        <v>586</v>
       </c>
       <c r="H67" t="s">
-        <v>509</v>
+        <v>587</v>
       </c>
       <c r="I67" t="s">
         <v>24</v>
       </c>
       <c r="J67" t="s">
-        <v>510</v>
+        <v>588</v>
       </c>
       <c r="K67" t="s">
-        <v>26</v>
-      </c>
-      <c r="L67" t="s">
-        <v>26</v>
-      </c>
-      <c r="M67" t="s">
-        <v>26</v>
+        <v>1061</v>
+      </c>
+      <c r="L67" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M67" t="n">
+        <v>883.73</v>
       </c>
       <c r="N67" t="s">
         <v>26</v>
       </c>
       <c r="O67" t="s">
-        <v>511</v>
+        <v>589</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>512</v>
+        <v>590</v>
       </c>
       <c r="B68" t="s">
-        <v>513</v>
+        <v>591</v>
       </c>
       <c r="C68" t="s">
-        <v>514</v>
+        <v>592</v>
       </c>
       <c r="D68" t="s">
         <v>19</v>
@@ -6786,45 +6789,45 @@
         <v>20</v>
       </c>
       <c r="F68" t="s">
-        <v>515</v>
+        <v>593</v>
       </c>
       <c r="G68" t="s">
-        <v>516</v>
+        <v>594</v>
       </c>
       <c r="H68" t="s">
-        <v>517</v>
+        <v>595</v>
       </c>
       <c r="I68" t="s">
         <v>24</v>
       </c>
       <c r="J68" t="s">
-        <v>518</v>
+        <v>596</v>
       </c>
       <c r="K68" t="s">
         <v>26</v>
       </c>
-      <c r="L68" t="s">
-        <v>26</v>
-      </c>
-      <c r="M68" t="s">
-        <v>26</v>
+      <c r="L68" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M68" t="n">
+        <v>1417.32</v>
       </c>
       <c r="N68" t="s">
         <v>26</v>
       </c>
       <c r="O68" t="s">
-        <v>519</v>
+        <v>597</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>520</v>
+        <v>598</v>
       </c>
       <c r="B69" t="s">
-        <v>521</v>
+        <v>599</v>
       </c>
       <c r="C69" t="s">
-        <v>522</v>
+        <v>600</v>
       </c>
       <c r="D69" t="s">
         <v>19</v>
@@ -6833,45 +6836,45 @@
         <v>20</v>
       </c>
       <c r="F69" t="s">
-        <v>523</v>
+        <v>601</v>
       </c>
       <c r="G69" t="s">
-        <v>524</v>
+        <v>602</v>
       </c>
       <c r="H69" t="s">
-        <v>525</v>
+        <v>603</v>
       </c>
       <c r="I69" t="s">
         <v>24</v>
       </c>
       <c r="J69" t="s">
-        <v>526</v>
+        <v>604</v>
       </c>
       <c r="K69" t="s">
-        <v>26</v>
-      </c>
-      <c r="L69" t="s">
-        <v>26</v>
-      </c>
-      <c r="M69" t="s">
-        <v>26</v>
+        <v>1061</v>
+      </c>
+      <c r="L69" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M69" t="n">
+        <v>150.74</v>
       </c>
       <c r="N69" t="s">
         <v>26</v>
       </c>
       <c r="O69" t="s">
-        <v>527</v>
+        <v>605</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>528</v>
+        <v>612</v>
       </c>
       <c r="B70" t="s">
-        <v>529</v>
+        <v>613</v>
       </c>
       <c r="C70" t="s">
-        <v>189</v>
+        <v>614</v>
       </c>
       <c r="D70" t="s">
         <v>19</v>
@@ -6880,45 +6883,45 @@
         <v>20</v>
       </c>
       <c r="F70" t="s">
-        <v>530</v>
+        <v>615</v>
       </c>
       <c r="G70" t="s">
-        <v>531</v>
+        <v>616</v>
       </c>
       <c r="H70" t="s">
-        <v>532</v>
+        <v>617</v>
       </c>
       <c r="I70" t="s">
         <v>24</v>
       </c>
       <c r="J70" t="s">
-        <v>533</v>
+        <v>618</v>
       </c>
       <c r="K70" t="s">
-        <v>26</v>
-      </c>
-      <c r="L70" t="s">
-        <v>26</v>
-      </c>
-      <c r="M70" t="s">
-        <v>26</v>
+        <v>1061</v>
+      </c>
+      <c r="L70" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M70" t="n">
+        <v>1152.3</v>
       </c>
       <c r="N70" t="s">
         <v>26</v>
       </c>
       <c r="O70" t="s">
-        <v>534</v>
+        <v>619</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>535</v>
+        <v>620</v>
       </c>
       <c r="B71" t="s">
-        <v>536</v>
+        <v>621</v>
       </c>
       <c r="C71" t="s">
-        <v>30</v>
+        <v>622</v>
       </c>
       <c r="D71" t="s">
         <v>19</v>
@@ -6927,45 +6930,45 @@
         <v>20</v>
       </c>
       <c r="F71" t="s">
-        <v>537</v>
+        <v>507</v>
       </c>
       <c r="G71" t="s">
-        <v>538</v>
+        <v>508</v>
       </c>
       <c r="H71" t="s">
-        <v>539</v>
+        <v>509</v>
       </c>
       <c r="I71" t="s">
         <v>24</v>
       </c>
       <c r="J71" t="s">
-        <v>540</v>
+        <v>510</v>
       </c>
       <c r="K71" t="s">
-        <v>26</v>
-      </c>
-      <c r="L71" t="s">
-        <v>26</v>
-      </c>
-      <c r="M71" t="s">
-        <v>26</v>
+        <v>1061</v>
+      </c>
+      <c r="L71" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M71" t="n">
+        <v>1325.21</v>
       </c>
       <c r="N71" t="s">
         <v>26</v>
       </c>
       <c r="O71" t="s">
-        <v>541</v>
+        <v>623</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>542</v>
+        <v>624</v>
       </c>
       <c r="B72" t="s">
-        <v>543</v>
+        <v>625</v>
       </c>
       <c r="C72" t="s">
-        <v>544</v>
+        <v>626</v>
       </c>
       <c r="D72" t="s">
         <v>19</v>
@@ -6974,45 +6977,45 @@
         <v>20</v>
       </c>
       <c r="F72" t="s">
-        <v>545</v>
+        <v>627</v>
       </c>
       <c r="G72" t="s">
-        <v>546</v>
+        <v>628</v>
       </c>
       <c r="H72" t="s">
-        <v>547</v>
+        <v>629</v>
       </c>
       <c r="I72" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="J72" t="s">
-        <v>548</v>
+        <v>630</v>
       </c>
       <c r="K72" t="s">
-        <v>26</v>
-      </c>
-      <c r="L72" t="s">
-        <v>26</v>
-      </c>
-      <c r="M72" t="s">
-        <v>26</v>
+        <v>1061</v>
+      </c>
+      <c r="L72" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="M72" t="n">
+        <v>1136.58</v>
       </c>
       <c r="N72" t="s">
         <v>26</v>
       </c>
       <c r="O72" t="s">
-        <v>549</v>
+        <v>631</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>550</v>
+        <v>632</v>
       </c>
       <c r="B73" t="s">
-        <v>551</v>
+        <v>633</v>
       </c>
       <c r="C73" t="s">
-        <v>552</v>
+        <v>634</v>
       </c>
       <c r="D73" t="s">
         <v>19</v>
@@ -7021,45 +7024,45 @@
         <v>20</v>
       </c>
       <c r="F73" t="s">
-        <v>553</v>
+        <v>635</v>
       </c>
       <c r="G73" t="s">
-        <v>554</v>
+        <v>636</v>
       </c>
       <c r="H73" t="s">
-        <v>555</v>
+        <v>637</v>
       </c>
       <c r="I73" t="s">
         <v>24</v>
       </c>
       <c r="J73" t="s">
-        <v>556</v>
+        <v>638</v>
       </c>
       <c r="K73" t="s">
-        <v>26</v>
-      </c>
-      <c r="L73" t="s">
-        <v>26</v>
-      </c>
-      <c r="M73" t="s">
-        <v>26</v>
+        <v>1061</v>
+      </c>
+      <c r="L73" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M73" t="n">
+        <v>895.01</v>
       </c>
       <c r="N73" t="s">
         <v>26</v>
       </c>
       <c r="O73" t="s">
-        <v>557</v>
+        <v>84</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>558</v>
+        <v>639</v>
       </c>
       <c r="B74" t="s">
-        <v>559</v>
+        <v>640</v>
       </c>
       <c r="C74" t="s">
-        <v>560</v>
+        <v>641</v>
       </c>
       <c r="D74" t="s">
         <v>19</v>
@@ -7068,45 +7071,45 @@
         <v>20</v>
       </c>
       <c r="F74" t="s">
-        <v>561</v>
+        <v>127</v>
       </c>
       <c r="G74" t="s">
-        <v>562</v>
+        <v>128</v>
       </c>
       <c r="H74" t="s">
-        <v>563</v>
+        <v>129</v>
       </c>
       <c r="I74" t="s">
         <v>24</v>
       </c>
       <c r="J74" t="s">
-        <v>564</v>
+        <v>130</v>
       </c>
       <c r="K74" t="s">
-        <v>26</v>
-      </c>
-      <c r="L74" t="s">
-        <v>26</v>
-      </c>
-      <c r="M74" t="s">
-        <v>26</v>
+        <v>1061</v>
+      </c>
+      <c r="L74" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M74" t="n">
+        <v>856.46</v>
       </c>
       <c r="N74" t="s">
         <v>26</v>
       </c>
       <c r="O74" t="s">
-        <v>565</v>
+        <v>642</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>566</v>
+        <v>643</v>
       </c>
       <c r="B75" t="s">
-        <v>567</v>
+        <v>644</v>
       </c>
       <c r="C75" t="s">
-        <v>568</v>
+        <v>645</v>
       </c>
       <c r="D75" t="s">
         <v>19</v>
@@ -7115,45 +7118,45 @@
         <v>20</v>
       </c>
       <c r="F75" t="s">
-        <v>569</v>
+        <v>646</v>
       </c>
       <c r="G75" t="s">
-        <v>570</v>
+        <v>647</v>
       </c>
       <c r="H75" t="s">
-        <v>571</v>
+        <v>648</v>
       </c>
       <c r="I75" t="s">
         <v>24</v>
       </c>
       <c r="J75" t="s">
-        <v>572</v>
+        <v>649</v>
       </c>
       <c r="K75" t="s">
-        <v>26</v>
-      </c>
-      <c r="L75" t="s">
-        <v>26</v>
-      </c>
-      <c r="M75" t="s">
-        <v>26</v>
+        <v>1061</v>
+      </c>
+      <c r="L75" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M75" t="n">
+        <v>1232.13</v>
       </c>
       <c r="N75" t="s">
         <v>26</v>
       </c>
       <c r="O75" t="s">
-        <v>573</v>
+        <v>650</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>574</v>
+        <v>651</v>
       </c>
       <c r="B76" t="s">
-        <v>575</v>
+        <v>652</v>
       </c>
       <c r="C76" t="s">
-        <v>576</v>
+        <v>653</v>
       </c>
       <c r="D76" t="s">
         <v>19</v>
@@ -7162,45 +7165,45 @@
         <v>20</v>
       </c>
       <c r="F76" t="s">
-        <v>577</v>
+        <v>654</v>
       </c>
       <c r="G76" t="s">
-        <v>578</v>
+        <v>655</v>
       </c>
       <c r="H76" t="s">
-        <v>579</v>
+        <v>656</v>
       </c>
       <c r="I76" t="s">
         <v>24</v>
       </c>
       <c r="J76" t="s">
-        <v>580</v>
+        <v>657</v>
       </c>
       <c r="K76" t="s">
         <v>26</v>
       </c>
-      <c r="L76" t="s">
-        <v>26</v>
-      </c>
-      <c r="M76" t="s">
-        <v>26</v>
+      <c r="L76" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M76" t="n">
+        <v>1325.68</v>
       </c>
       <c r="N76" t="s">
         <v>26</v>
       </c>
       <c r="O76" t="s">
-        <v>581</v>
+        <v>658</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>582</v>
+        <v>659</v>
       </c>
       <c r="B77" t="s">
-        <v>583</v>
+        <v>660</v>
       </c>
       <c r="C77" t="s">
-        <v>584</v>
+        <v>661</v>
       </c>
       <c r="D77" t="s">
         <v>19</v>
@@ -7209,45 +7212,45 @@
         <v>20</v>
       </c>
       <c r="F77" t="s">
-        <v>585</v>
+        <v>662</v>
       </c>
       <c r="G77" t="s">
-        <v>586</v>
+        <v>663</v>
       </c>
       <c r="H77" t="s">
-        <v>587</v>
+        <v>664</v>
       </c>
       <c r="I77" t="s">
         <v>24</v>
       </c>
       <c r="J77" t="s">
-        <v>588</v>
+        <v>665</v>
       </c>
       <c r="K77" t="s">
-        <v>26</v>
-      </c>
-      <c r="L77" t="s">
-        <v>26</v>
-      </c>
-      <c r="M77" t="s">
-        <v>26</v>
+        <v>1061</v>
+      </c>
+      <c r="L77" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M77" t="n">
+        <v>696.49</v>
       </c>
       <c r="N77" t="s">
         <v>26</v>
       </c>
       <c r="O77" t="s">
-        <v>589</v>
+        <v>666</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>590</v>
+        <v>667</v>
       </c>
       <c r="B78" t="s">
-        <v>591</v>
+        <v>668</v>
       </c>
       <c r="C78" t="s">
-        <v>592</v>
+        <v>669</v>
       </c>
       <c r="D78" t="s">
         <v>19</v>
@@ -7256,45 +7259,45 @@
         <v>20</v>
       </c>
       <c r="F78" t="s">
-        <v>593</v>
+        <v>670</v>
       </c>
       <c r="G78" t="s">
-        <v>594</v>
+        <v>671</v>
       </c>
       <c r="H78" t="s">
-        <v>595</v>
+        <v>672</v>
       </c>
       <c r="I78" t="s">
         <v>24</v>
       </c>
       <c r="J78" t="s">
-        <v>596</v>
+        <v>673</v>
       </c>
       <c r="K78" t="s">
-        <v>26</v>
-      </c>
-      <c r="L78" t="s">
-        <v>26</v>
-      </c>
-      <c r="M78" t="s">
-        <v>26</v>
+        <v>1061</v>
+      </c>
+      <c r="L78" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M78" t="n">
+        <v>1448.37</v>
       </c>
       <c r="N78" t="s">
         <v>26</v>
       </c>
       <c r="O78" t="s">
-        <v>597</v>
+        <v>84</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>598</v>
+        <v>667</v>
       </c>
       <c r="B79" t="s">
-        <v>599</v>
+        <v>674</v>
       </c>
       <c r="C79" t="s">
-        <v>600</v>
+        <v>669</v>
       </c>
       <c r="D79" t="s">
         <v>19</v>
@@ -7303,45 +7306,45 @@
         <v>20</v>
       </c>
       <c r="F79" t="s">
-        <v>601</v>
+        <v>675</v>
       </c>
       <c r="G79" t="s">
-        <v>602</v>
+        <v>676</v>
       </c>
       <c r="H79" t="s">
-        <v>603</v>
+        <v>677</v>
       </c>
       <c r="I79" t="s">
-        <v>24</v>
+        <v>678</v>
       </c>
       <c r="J79" t="s">
-        <v>604</v>
+        <v>679</v>
       </c>
       <c r="K79" t="s">
-        <v>26</v>
-      </c>
-      <c r="L79" t="s">
-        <v>26</v>
-      </c>
-      <c r="M79" t="s">
-        <v>26</v>
+        <v>1061</v>
+      </c>
+      <c r="L79" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="M79" t="n">
+        <v>2115.09</v>
       </c>
       <c r="N79" t="s">
         <v>26</v>
       </c>
       <c r="O79" t="s">
-        <v>605</v>
+        <v>680</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>606</v>
+        <v>681</v>
       </c>
       <c r="B80" t="s">
-        <v>29</v>
+        <v>682</v>
       </c>
       <c r="C80" t="s">
-        <v>30</v>
+        <v>683</v>
       </c>
       <c r="D80" t="s">
         <v>19</v>
@@ -7350,45 +7353,45 @@
         <v>20</v>
       </c>
       <c r="F80" t="s">
-        <v>607</v>
+        <v>684</v>
       </c>
       <c r="G80" t="s">
-        <v>608</v>
+        <v>685</v>
       </c>
       <c r="H80" t="s">
-        <v>609</v>
+        <v>686</v>
       </c>
       <c r="I80" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="J80" t="s">
-        <v>610</v>
+        <v>687</v>
       </c>
       <c r="K80" t="s">
         <v>26</v>
       </c>
-      <c r="L80" t="s">
-        <v>26</v>
-      </c>
-      <c r="M80" t="s">
-        <v>26</v>
+      <c r="L80" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="M80" t="n">
+        <v>1837.08</v>
       </c>
       <c r="N80" t="s">
         <v>26</v>
       </c>
       <c r="O80" t="s">
-        <v>611</v>
+        <v>84</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>612</v>
+        <v>688</v>
       </c>
       <c r="B81" t="s">
-        <v>613</v>
+        <v>689</v>
       </c>
       <c r="C81" t="s">
-        <v>614</v>
+        <v>690</v>
       </c>
       <c r="D81" t="s">
         <v>19</v>
@@ -7397,45 +7400,45 @@
         <v>20</v>
       </c>
       <c r="F81" t="s">
-        <v>615</v>
+        <v>691</v>
       </c>
       <c r="G81" t="s">
-        <v>616</v>
+        <v>692</v>
       </c>
       <c r="H81" t="s">
-        <v>617</v>
+        <v>693</v>
       </c>
       <c r="I81" t="s">
         <v>24</v>
       </c>
       <c r="J81" t="s">
-        <v>618</v>
+        <v>694</v>
       </c>
       <c r="K81" t="s">
-        <v>26</v>
-      </c>
-      <c r="L81" t="s">
-        <v>26</v>
-      </c>
-      <c r="M81" t="s">
-        <v>26</v>
+        <v>1061</v>
+      </c>
+      <c r="L81" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M81" t="n">
+        <v>3238.0</v>
       </c>
       <c r="N81" t="s">
         <v>26</v>
       </c>
       <c r="O81" t="s">
-        <v>619</v>
+        <v>695</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>620</v>
+        <v>696</v>
       </c>
       <c r="B82" t="s">
-        <v>621</v>
+        <v>697</v>
       </c>
       <c r="C82" t="s">
-        <v>622</v>
+        <v>698</v>
       </c>
       <c r="D82" t="s">
         <v>19</v>
@@ -7444,45 +7447,45 @@
         <v>20</v>
       </c>
       <c r="F82" t="s">
-        <v>507</v>
+        <v>699</v>
       </c>
       <c r="G82" t="s">
-        <v>508</v>
+        <v>700</v>
       </c>
       <c r="H82" t="s">
-        <v>509</v>
+        <v>701</v>
       </c>
       <c r="I82" t="s">
         <v>24</v>
       </c>
       <c r="J82" t="s">
-        <v>510</v>
+        <v>702</v>
       </c>
       <c r="K82" t="s">
-        <v>26</v>
-      </c>
-      <c r="L82" t="s">
-        <v>26</v>
-      </c>
-      <c r="M82" t="s">
-        <v>26</v>
+        <v>1061</v>
+      </c>
+      <c r="L82" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M82" t="n">
+        <v>318.74</v>
       </c>
       <c r="N82" t="s">
         <v>26</v>
       </c>
       <c r="O82" t="s">
-        <v>623</v>
+        <v>703</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>624</v>
+        <v>704</v>
       </c>
       <c r="B83" t="s">
-        <v>625</v>
+        <v>705</v>
       </c>
       <c r="C83" t="s">
-        <v>626</v>
+        <v>388</v>
       </c>
       <c r="D83" t="s">
         <v>19</v>
@@ -7491,45 +7494,45 @@
         <v>20</v>
       </c>
       <c r="F83" t="s">
-        <v>627</v>
+        <v>706</v>
       </c>
       <c r="G83" t="s">
-        <v>628</v>
+        <v>707</v>
       </c>
       <c r="H83" t="s">
-        <v>629</v>
+        <v>708</v>
       </c>
       <c r="I83" t="s">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="J83" t="s">
-        <v>630</v>
+        <v>709</v>
       </c>
       <c r="K83" t="s">
-        <v>26</v>
-      </c>
-      <c r="L83" t="s">
-        <v>26</v>
-      </c>
-      <c r="M83" t="s">
-        <v>26</v>
+        <v>1061</v>
+      </c>
+      <c r="L83" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M83" t="n">
+        <v>1217.97</v>
       </c>
       <c r="N83" t="s">
         <v>26</v>
       </c>
       <c r="O83" t="s">
-        <v>631</v>
+        <v>84</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>632</v>
+        <v>716</v>
       </c>
       <c r="B84" t="s">
-        <v>633</v>
+        <v>717</v>
       </c>
       <c r="C84" t="s">
-        <v>634</v>
+        <v>718</v>
       </c>
       <c r="D84" t="s">
         <v>19</v>
@@ -7538,45 +7541,45 @@
         <v>20</v>
       </c>
       <c r="F84" t="s">
-        <v>635</v>
+        <v>719</v>
       </c>
       <c r="G84" t="s">
-        <v>636</v>
+        <v>720</v>
       </c>
       <c r="H84" t="s">
-        <v>637</v>
+        <v>721</v>
       </c>
       <c r="I84" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="J84" t="s">
-        <v>638</v>
+        <v>722</v>
       </c>
       <c r="K84" t="s">
-        <v>26</v>
-      </c>
-      <c r="L84" t="s">
-        <v>26</v>
-      </c>
-      <c r="M84" t="s">
-        <v>26</v>
+        <v>1061</v>
+      </c>
+      <c r="L84" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="M84" t="n">
+        <v>365.62</v>
       </c>
       <c r="N84" t="s">
         <v>26</v>
       </c>
       <c r="O84" t="s">
-        <v>84</v>
+        <v>723</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>639</v>
+        <v>724</v>
       </c>
       <c r="B85" t="s">
-        <v>640</v>
+        <v>725</v>
       </c>
       <c r="C85" t="s">
-        <v>641</v>
+        <v>726</v>
       </c>
       <c r="D85" t="s">
         <v>19</v>
@@ -7585,45 +7588,45 @@
         <v>20</v>
       </c>
       <c r="F85" t="s">
-        <v>127</v>
+        <v>727</v>
       </c>
       <c r="G85" t="s">
-        <v>128</v>
+        <v>728</v>
       </c>
       <c r="H85" t="s">
-        <v>129</v>
+        <v>729</v>
       </c>
       <c r="I85" t="s">
         <v>24</v>
       </c>
       <c r="J85" t="s">
-        <v>130</v>
+        <v>730</v>
       </c>
       <c r="K85" t="s">
-        <v>26</v>
-      </c>
-      <c r="L85" t="s">
-        <v>26</v>
-      </c>
-      <c r="M85" t="s">
-        <v>26</v>
+        <v>1061</v>
+      </c>
+      <c r="L85" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M85" t="n">
+        <v>5686.49</v>
       </c>
       <c r="N85" t="s">
         <v>26</v>
       </c>
       <c r="O85" t="s">
-        <v>642</v>
+        <v>731</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>643</v>
+        <v>732</v>
       </c>
       <c r="B86" t="s">
-        <v>644</v>
+        <v>733</v>
       </c>
       <c r="C86" t="s">
-        <v>645</v>
+        <v>734</v>
       </c>
       <c r="D86" t="s">
         <v>19</v>
@@ -7632,45 +7635,45 @@
         <v>20</v>
       </c>
       <c r="F86" t="s">
-        <v>646</v>
+        <v>735</v>
       </c>
       <c r="G86" t="s">
-        <v>647</v>
+        <v>736</v>
       </c>
       <c r="H86" t="s">
-        <v>648</v>
+        <v>737</v>
       </c>
       <c r="I86" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="J86" t="s">
-        <v>649</v>
+        <v>738</v>
       </c>
       <c r="K86" t="s">
-        <v>26</v>
-      </c>
-      <c r="L86" t="s">
-        <v>26</v>
-      </c>
-      <c r="M86" t="s">
-        <v>26</v>
+        <v>1061</v>
+      </c>
+      <c r="L86" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="M86" t="n">
+        <v>347.4</v>
       </c>
       <c r="N86" t="s">
         <v>26</v>
       </c>
       <c r="O86" t="s">
-        <v>650</v>
+        <v>739</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>651</v>
+        <v>740</v>
       </c>
       <c r="B87" t="s">
-        <v>652</v>
+        <v>741</v>
       </c>
       <c r="C87" t="s">
-        <v>653</v>
+        <v>742</v>
       </c>
       <c r="D87" t="s">
         <v>19</v>
@@ -7679,45 +7682,45 @@
         <v>20</v>
       </c>
       <c r="F87" t="s">
-        <v>654</v>
+        <v>743</v>
       </c>
       <c r="G87" t="s">
-        <v>655</v>
+        <v>744</v>
       </c>
       <c r="H87" t="s">
-        <v>656</v>
+        <v>745</v>
       </c>
       <c r="I87" t="s">
         <v>24</v>
       </c>
       <c r="J87" t="s">
-        <v>657</v>
+        <v>746</v>
       </c>
       <c r="K87" t="s">
         <v>26</v>
       </c>
-      <c r="L87" t="s">
-        <v>26</v>
-      </c>
-      <c r="M87" t="s">
-        <v>26</v>
+      <c r="L87" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M87" t="n">
+        <v>280.24</v>
       </c>
       <c r="N87" t="s">
         <v>26</v>
       </c>
       <c r="O87" t="s">
-        <v>658</v>
+        <v>747</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>659</v>
+        <v>748</v>
       </c>
       <c r="B88" t="s">
-        <v>660</v>
+        <v>749</v>
       </c>
       <c r="C88" t="s">
-        <v>661</v>
+        <v>750</v>
       </c>
       <c r="D88" t="s">
         <v>19</v>
@@ -7726,45 +7729,45 @@
         <v>20</v>
       </c>
       <c r="F88" t="s">
-        <v>662</v>
+        <v>751</v>
       </c>
       <c r="G88" t="s">
-        <v>663</v>
+        <v>752</v>
       </c>
       <c r="H88" t="s">
-        <v>664</v>
+        <v>753</v>
       </c>
       <c r="I88" t="s">
         <v>24</v>
       </c>
       <c r="J88" t="s">
-        <v>665</v>
+        <v>754</v>
       </c>
       <c r="K88" t="s">
-        <v>26</v>
-      </c>
-      <c r="L88" t="s">
-        <v>26</v>
-      </c>
-      <c r="M88" t="s">
-        <v>26</v>
+        <v>1061</v>
+      </c>
+      <c r="L88" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M88" t="n">
+        <v>288.7</v>
       </c>
       <c r="N88" t="s">
         <v>26</v>
       </c>
       <c r="O88" t="s">
-        <v>666</v>
+        <v>755</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>667</v>
+        <v>756</v>
       </c>
       <c r="B89" t="s">
-        <v>668</v>
+        <v>757</v>
       </c>
       <c r="C89" t="s">
-        <v>669</v>
+        <v>758</v>
       </c>
       <c r="D89" t="s">
         <v>19</v>
@@ -7773,45 +7776,45 @@
         <v>20</v>
       </c>
       <c r="F89" t="s">
-        <v>670</v>
+        <v>615</v>
       </c>
       <c r="G89" t="s">
-        <v>671</v>
+        <v>616</v>
       </c>
       <c r="H89" t="s">
-        <v>672</v>
+        <v>617</v>
       </c>
       <c r="I89" t="s">
         <v>24</v>
       </c>
       <c r="J89" t="s">
-        <v>673</v>
+        <v>618</v>
       </c>
       <c r="K89" t="s">
-        <v>26</v>
-      </c>
-      <c r="L89" t="s">
-        <v>26</v>
-      </c>
-      <c r="M89" t="s">
-        <v>26</v>
+        <v>1061</v>
+      </c>
+      <c r="L89" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M89" t="n">
+        <v>1152.3</v>
       </c>
       <c r="N89" t="s">
         <v>26</v>
       </c>
       <c r="O89" t="s">
-        <v>84</v>
+        <v>759</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>667</v>
+        <v>748</v>
       </c>
       <c r="B90" t="s">
-        <v>674</v>
+        <v>760</v>
       </c>
       <c r="C90" t="s">
-        <v>669</v>
+        <v>750</v>
       </c>
       <c r="D90" t="s">
         <v>19</v>
@@ -7820,45 +7823,45 @@
         <v>20</v>
       </c>
       <c r="F90" t="s">
-        <v>675</v>
+        <v>761</v>
       </c>
       <c r="G90" t="s">
-        <v>676</v>
+        <v>762</v>
       </c>
       <c r="H90" t="s">
-        <v>677</v>
+        <v>763</v>
       </c>
       <c r="I90" t="s">
-        <v>678</v>
+        <v>24</v>
       </c>
       <c r="J90" t="s">
-        <v>679</v>
+        <v>764</v>
       </c>
       <c r="K90" t="s">
-        <v>26</v>
-      </c>
-      <c r="L90" t="s">
-        <v>26</v>
-      </c>
-      <c r="M90" t="s">
-        <v>26</v>
+        <v>1061</v>
+      </c>
+      <c r="L90" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M90" t="n">
+        <v>406.57</v>
       </c>
       <c r="N90" t="s">
         <v>26</v>
       </c>
       <c r="O90" t="s">
-        <v>680</v>
+        <v>765</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>681</v>
+        <v>748</v>
       </c>
       <c r="B91" t="s">
-        <v>682</v>
+        <v>766</v>
       </c>
       <c r="C91" t="s">
-        <v>683</v>
+        <v>750</v>
       </c>
       <c r="D91" t="s">
         <v>19</v>
@@ -7867,45 +7870,45 @@
         <v>20</v>
       </c>
       <c r="F91" t="s">
-        <v>684</v>
+        <v>767</v>
       </c>
       <c r="G91" t="s">
-        <v>685</v>
+        <v>768</v>
       </c>
       <c r="H91" t="s">
-        <v>686</v>
+        <v>769</v>
       </c>
       <c r="I91" t="s">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="J91" t="s">
-        <v>687</v>
+        <v>770</v>
       </c>
       <c r="K91" t="s">
-        <v>26</v>
-      </c>
-      <c r="L91" t="s">
-        <v>26</v>
-      </c>
-      <c r="M91" t="s">
-        <v>26</v>
+        <v>1061</v>
+      </c>
+      <c r="L91" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M91" t="n">
+        <v>404.8</v>
       </c>
       <c r="N91" t="s">
         <v>26</v>
       </c>
       <c r="O91" t="s">
-        <v>84</v>
+        <v>771</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>688</v>
+        <v>772</v>
       </c>
       <c r="B92" t="s">
-        <v>689</v>
+        <v>773</v>
       </c>
       <c r="C92" t="s">
-        <v>690</v>
+        <v>774</v>
       </c>
       <c r="D92" t="s">
         <v>19</v>
@@ -7914,45 +7917,45 @@
         <v>20</v>
       </c>
       <c r="F92" t="s">
-        <v>691</v>
+        <v>775</v>
       </c>
       <c r="G92" t="s">
-        <v>692</v>
+        <v>776</v>
       </c>
       <c r="H92" t="s">
-        <v>693</v>
+        <v>777</v>
       </c>
       <c r="I92" t="s">
         <v>24</v>
       </c>
       <c r="J92" t="s">
-        <v>694</v>
+        <v>778</v>
       </c>
       <c r="K92" t="s">
-        <v>26</v>
-      </c>
-      <c r="L92" t="s">
-        <v>26</v>
-      </c>
-      <c r="M92" t="s">
-        <v>26</v>
+        <v>1061</v>
+      </c>
+      <c r="L92" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M92" t="n">
+        <v>2087.77</v>
       </c>
       <c r="N92" t="s">
         <v>26</v>
       </c>
       <c r="O92" t="s">
-        <v>695</v>
+        <v>779</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>696</v>
+        <v>780</v>
       </c>
       <c r="B93" t="s">
-        <v>697</v>
+        <v>781</v>
       </c>
       <c r="C93" t="s">
-        <v>698</v>
+        <v>782</v>
       </c>
       <c r="D93" t="s">
         <v>19</v>
@@ -7961,45 +7964,45 @@
         <v>20</v>
       </c>
       <c r="F93" t="s">
-        <v>699</v>
+        <v>783</v>
       </c>
       <c r="G93" t="s">
-        <v>700</v>
+        <v>784</v>
       </c>
       <c r="H93" t="s">
-        <v>701</v>
+        <v>785</v>
       </c>
       <c r="I93" t="s">
         <v>24</v>
       </c>
       <c r="J93" t="s">
-        <v>702</v>
+        <v>786</v>
       </c>
       <c r="K93" t="s">
-        <v>26</v>
-      </c>
-      <c r="L93" t="s">
-        <v>26</v>
-      </c>
-      <c r="M93" t="s">
-        <v>26</v>
+        <v>1061</v>
+      </c>
+      <c r="L93" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M93" t="n">
+        <v>3963.9</v>
       </c>
       <c r="N93" t="s">
         <v>26</v>
       </c>
       <c r="O93" t="s">
-        <v>703</v>
+        <v>787</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>704</v>
+        <v>795</v>
       </c>
       <c r="B94" t="s">
-        <v>705</v>
+        <v>796</v>
       </c>
       <c r="C94" t="s">
-        <v>388</v>
+        <v>797</v>
       </c>
       <c r="D94" t="s">
         <v>19</v>
@@ -8008,45 +8011,45 @@
         <v>20</v>
       </c>
       <c r="F94" t="s">
-        <v>706</v>
+        <v>798</v>
       </c>
       <c r="G94" t="s">
-        <v>707</v>
+        <v>799</v>
       </c>
       <c r="H94" t="s">
-        <v>708</v>
+        <v>800</v>
       </c>
       <c r="I94" t="s">
         <v>24</v>
       </c>
       <c r="J94" t="s">
-        <v>709</v>
+        <v>801</v>
       </c>
       <c r="K94" t="s">
-        <v>26</v>
-      </c>
-      <c r="L94" t="s">
-        <v>26</v>
-      </c>
-      <c r="M94" t="s">
-        <v>26</v>
+        <v>1061</v>
+      </c>
+      <c r="L94" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M94" t="n">
+        <v>568.61</v>
       </c>
       <c r="N94" t="s">
         <v>26</v>
       </c>
       <c r="O94" t="s">
-        <v>84</v>
+        <v>802</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>710</v>
+        <v>803</v>
       </c>
       <c r="B95" t="s">
-        <v>339</v>
+        <v>804</v>
       </c>
       <c r="C95" t="s">
-        <v>340</v>
+        <v>805</v>
       </c>
       <c r="D95" t="s">
         <v>19</v>
@@ -8055,45 +8058,45 @@
         <v>20</v>
       </c>
       <c r="F95" t="s">
-        <v>711</v>
+        <v>806</v>
       </c>
       <c r="G95" t="s">
-        <v>712</v>
+        <v>807</v>
       </c>
       <c r="H95" t="s">
-        <v>713</v>
+        <v>808</v>
       </c>
       <c r="I95" t="s">
         <v>24</v>
       </c>
       <c r="J95" t="s">
-        <v>714</v>
+        <v>809</v>
       </c>
       <c r="K95" t="s">
-        <v>26</v>
-      </c>
-      <c r="L95" t="s">
-        <v>26</v>
-      </c>
-      <c r="M95" t="s">
-        <v>26</v>
+        <v>1061</v>
+      </c>
+      <c r="L95" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M95" t="n">
+        <v>395.31</v>
       </c>
       <c r="N95" t="s">
         <v>26</v>
       </c>
       <c r="O95" t="s">
-        <v>715</v>
+        <v>810</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>716</v>
+        <v>811</v>
       </c>
       <c r="B96" t="s">
-        <v>717</v>
+        <v>812</v>
       </c>
       <c r="C96" t="s">
-        <v>718</v>
+        <v>813</v>
       </c>
       <c r="D96" t="s">
         <v>19</v>
@@ -8102,45 +8105,45 @@
         <v>20</v>
       </c>
       <c r="F96" t="s">
-        <v>719</v>
+        <v>814</v>
       </c>
       <c r="G96" t="s">
-        <v>720</v>
+        <v>815</v>
       </c>
       <c r="H96" t="s">
-        <v>721</v>
+        <v>816</v>
       </c>
       <c r="I96" t="s">
         <v>58</v>
       </c>
       <c r="J96" t="s">
-        <v>722</v>
+        <v>817</v>
       </c>
       <c r="K96" t="s">
-        <v>26</v>
-      </c>
-      <c r="L96" t="s">
-        <v>26</v>
-      </c>
-      <c r="M96" t="s">
-        <v>26</v>
+        <v>1061</v>
+      </c>
+      <c r="L96" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="M96" t="n">
+        <v>5844.02</v>
       </c>
       <c r="N96" t="s">
         <v>26</v>
       </c>
       <c r="O96" t="s">
-        <v>723</v>
+        <v>84</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>724</v>
+        <v>818</v>
       </c>
       <c r="B97" t="s">
-        <v>725</v>
+        <v>819</v>
       </c>
       <c r="C97" t="s">
-        <v>726</v>
+        <v>820</v>
       </c>
       <c r="D97" t="s">
         <v>19</v>
@@ -8149,45 +8152,45 @@
         <v>20</v>
       </c>
       <c r="F97" t="s">
-        <v>727</v>
+        <v>821</v>
       </c>
       <c r="G97" t="s">
-        <v>728</v>
+        <v>822</v>
       </c>
       <c r="H97" t="s">
-        <v>729</v>
+        <v>823</v>
       </c>
       <c r="I97" t="s">
-        <v>24</v>
+        <v>824</v>
       </c>
       <c r="J97" t="s">
-        <v>730</v>
+        <v>825</v>
       </c>
       <c r="K97" t="s">
-        <v>26</v>
-      </c>
-      <c r="L97" t="s">
-        <v>26</v>
-      </c>
-      <c r="M97" t="s">
-        <v>26</v>
+        <v>1061</v>
+      </c>
+      <c r="L97" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="M97" t="n">
+        <v>3303.4</v>
       </c>
       <c r="N97" t="s">
         <v>26</v>
       </c>
       <c r="O97" t="s">
-        <v>731</v>
+        <v>826</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>732</v>
+        <v>827</v>
       </c>
       <c r="B98" t="s">
-        <v>733</v>
+        <v>828</v>
       </c>
       <c r="C98" t="s">
-        <v>734</v>
+        <v>829</v>
       </c>
       <c r="D98" t="s">
         <v>19</v>
@@ -8196,45 +8199,45 @@
         <v>20</v>
       </c>
       <c r="F98" t="s">
-        <v>735</v>
+        <v>830</v>
       </c>
       <c r="G98" t="s">
-        <v>736</v>
+        <v>831</v>
       </c>
       <c r="H98" t="s">
-        <v>737</v>
+        <v>832</v>
       </c>
       <c r="I98" t="s">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="J98" t="s">
-        <v>738</v>
+        <v>833</v>
       </c>
       <c r="K98" t="s">
-        <v>26</v>
-      </c>
-      <c r="L98" t="s">
-        <v>26</v>
-      </c>
-      <c r="M98" t="s">
-        <v>26</v>
+        <v>1061</v>
+      </c>
+      <c r="L98" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M98" t="n">
+        <v>12372.64</v>
       </c>
       <c r="N98" t="s">
         <v>26</v>
       </c>
       <c r="O98" t="s">
-        <v>739</v>
+        <v>834</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>740</v>
+        <v>835</v>
       </c>
       <c r="B99" t="s">
-        <v>741</v>
+        <v>836</v>
       </c>
       <c r="C99" t="s">
-        <v>742</v>
+        <v>653</v>
       </c>
       <c r="D99" t="s">
         <v>19</v>
@@ -8243,45 +8246,45 @@
         <v>20</v>
       </c>
       <c r="F99" t="s">
-        <v>743</v>
+        <v>837</v>
       </c>
       <c r="G99" t="s">
-        <v>744</v>
+        <v>838</v>
       </c>
       <c r="H99" t="s">
-        <v>745</v>
+        <v>839</v>
       </c>
       <c r="I99" t="s">
         <v>24</v>
       </c>
       <c r="J99" t="s">
-        <v>746</v>
+        <v>840</v>
       </c>
       <c r="K99" t="s">
-        <v>26</v>
-      </c>
-      <c r="L99" t="s">
-        <v>26</v>
-      </c>
-      <c r="M99" t="s">
-        <v>26</v>
+        <v>1061</v>
+      </c>
+      <c r="L99" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M99" t="n">
+        <v>1683.43</v>
       </c>
       <c r="N99" t="s">
         <v>26</v>
       </c>
       <c r="O99" t="s">
-        <v>747</v>
+        <v>841</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>748</v>
+        <v>835</v>
       </c>
       <c r="B100" t="s">
-        <v>749</v>
+        <v>842</v>
       </c>
       <c r="C100" t="s">
-        <v>750</v>
+        <v>653</v>
       </c>
       <c r="D100" t="s">
         <v>19</v>
@@ -8290,45 +8293,45 @@
         <v>20</v>
       </c>
       <c r="F100" t="s">
-        <v>751</v>
+        <v>843</v>
       </c>
       <c r="G100" t="s">
-        <v>752</v>
+        <v>844</v>
       </c>
       <c r="H100" t="s">
-        <v>753</v>
+        <v>845</v>
       </c>
       <c r="I100" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="J100" t="s">
-        <v>754</v>
+        <v>846</v>
       </c>
       <c r="K100" t="s">
-        <v>26</v>
-      </c>
-      <c r="L100" t="s">
-        <v>26</v>
-      </c>
-      <c r="M100" t="s">
-        <v>26</v>
+        <v>1061</v>
+      </c>
+      <c r="L100" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="M100" t="n">
+        <v>3346.48</v>
       </c>
       <c r="N100" t="s">
         <v>26</v>
       </c>
       <c r="O100" t="s">
-        <v>755</v>
+        <v>847</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>756</v>
+        <v>848</v>
       </c>
       <c r="B101" t="s">
-        <v>757</v>
+        <v>849</v>
       </c>
       <c r="C101" t="s">
-        <v>758</v>
+        <v>850</v>
       </c>
       <c r="D101" t="s">
         <v>19</v>
@@ -8337,45 +8340,45 @@
         <v>20</v>
       </c>
       <c r="F101" t="s">
-        <v>615</v>
+        <v>851</v>
       </c>
       <c r="G101" t="s">
-        <v>616</v>
+        <v>852</v>
       </c>
       <c r="H101" t="s">
-        <v>617</v>
+        <v>853</v>
       </c>
       <c r="I101" t="s">
         <v>24</v>
       </c>
       <c r="J101" t="s">
-        <v>618</v>
+        <v>854</v>
       </c>
       <c r="K101" t="s">
-        <v>26</v>
-      </c>
-      <c r="L101" t="s">
-        <v>26</v>
-      </c>
-      <c r="M101" t="s">
-        <v>26</v>
+        <v>1061</v>
+      </c>
+      <c r="L101" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M101" t="n">
+        <v>462.14</v>
       </c>
       <c r="N101" t="s">
         <v>26</v>
       </c>
       <c r="O101" t="s">
-        <v>759</v>
+        <v>84</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>748</v>
+        <v>855</v>
       </c>
       <c r="B102" t="s">
-        <v>760</v>
+        <v>29</v>
       </c>
       <c r="C102" t="s">
-        <v>750</v>
+        <v>30</v>
       </c>
       <c r="D102" t="s">
         <v>19</v>
@@ -8384,45 +8387,45 @@
         <v>20</v>
       </c>
       <c r="F102" t="s">
-        <v>761</v>
+        <v>856</v>
       </c>
       <c r="G102" t="s">
-        <v>762</v>
+        <v>857</v>
       </c>
       <c r="H102" t="s">
-        <v>763</v>
+        <v>858</v>
       </c>
       <c r="I102" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="J102" t="s">
-        <v>764</v>
+        <v>859</v>
       </c>
       <c r="K102" t="s">
-        <v>26</v>
-      </c>
-      <c r="L102" t="s">
-        <v>26</v>
-      </c>
-      <c r="M102" t="s">
-        <v>26</v>
+        <v>1061</v>
+      </c>
+      <c r="L102" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="M102" t="n">
+        <v>1791.0</v>
       </c>
       <c r="N102" t="s">
         <v>26</v>
       </c>
       <c r="O102" t="s">
-        <v>765</v>
+        <v>860</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>748</v>
+        <v>868</v>
       </c>
       <c r="B103" t="s">
-        <v>766</v>
+        <v>869</v>
       </c>
       <c r="C103" t="s">
-        <v>750</v>
+        <v>870</v>
       </c>
       <c r="D103" t="s">
         <v>19</v>
@@ -8431,45 +8434,45 @@
         <v>20</v>
       </c>
       <c r="F103" t="s">
-        <v>767</v>
+        <v>871</v>
       </c>
       <c r="G103" t="s">
-        <v>768</v>
+        <v>872</v>
       </c>
       <c r="H103" t="s">
-        <v>769</v>
+        <v>873</v>
       </c>
       <c r="I103" t="s">
         <v>24</v>
       </c>
       <c r="J103" t="s">
-        <v>770</v>
+        <v>874</v>
       </c>
       <c r="K103" t="s">
-        <v>26</v>
-      </c>
-      <c r="L103" t="s">
-        <v>26</v>
-      </c>
-      <c r="M103" t="s">
-        <v>26</v>
+        <v>1061</v>
+      </c>
+      <c r="L103" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M103" t="n">
+        <v>181.09</v>
       </c>
       <c r="N103" t="s">
         <v>26</v>
       </c>
       <c r="O103" t="s">
-        <v>771</v>
+        <v>875</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>772</v>
+        <v>876</v>
       </c>
       <c r="B104" t="s">
-        <v>773</v>
+        <v>877</v>
       </c>
       <c r="C104" t="s">
-        <v>774</v>
+        <v>878</v>
       </c>
       <c r="D104" t="s">
         <v>19</v>
@@ -8478,45 +8481,45 @@
         <v>20</v>
       </c>
       <c r="F104" t="s">
-        <v>775</v>
+        <v>879</v>
       </c>
       <c r="G104" t="s">
-        <v>776</v>
+        <v>880</v>
       </c>
       <c r="H104" t="s">
-        <v>777</v>
+        <v>881</v>
       </c>
       <c r="I104" t="s">
         <v>24</v>
       </c>
       <c r="J104" t="s">
-        <v>778</v>
+        <v>882</v>
       </c>
       <c r="K104" t="s">
         <v>26</v>
       </c>
-      <c r="L104" t="s">
-        <v>26</v>
-      </c>
-      <c r="M104" t="s">
-        <v>26</v>
+      <c r="L104" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M104" t="n">
+        <v>336.85</v>
       </c>
       <c r="N104" t="s">
         <v>26</v>
       </c>
       <c r="O104" t="s">
-        <v>779</v>
+        <v>883</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>780</v>
+        <v>884</v>
       </c>
       <c r="B105" t="s">
-        <v>781</v>
+        <v>885</v>
       </c>
       <c r="C105" t="s">
-        <v>782</v>
+        <v>886</v>
       </c>
       <c r="D105" t="s">
         <v>19</v>
@@ -8525,45 +8528,45 @@
         <v>20</v>
       </c>
       <c r="F105" t="s">
-        <v>783</v>
+        <v>887</v>
       </c>
       <c r="G105" t="s">
-        <v>784</v>
+        <v>888</v>
       </c>
       <c r="H105" t="s">
-        <v>785</v>
+        <v>889</v>
       </c>
       <c r="I105" t="s">
         <v>24</v>
       </c>
       <c r="J105" t="s">
-        <v>786</v>
+        <v>890</v>
       </c>
       <c r="K105" t="s">
-        <v>26</v>
-      </c>
-      <c r="L105" t="s">
-        <v>26</v>
-      </c>
-      <c r="M105" t="s">
-        <v>26</v>
+        <v>1061</v>
+      </c>
+      <c r="L105" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M105" t="n">
+        <v>1538.46</v>
       </c>
       <c r="N105" t="s">
         <v>26</v>
       </c>
       <c r="O105" t="s">
-        <v>787</v>
+        <v>891</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>788</v>
+        <v>892</v>
       </c>
       <c r="B106" t="s">
-        <v>789</v>
+        <v>339</v>
       </c>
       <c r="C106" t="s">
-        <v>782</v>
+        <v>340</v>
       </c>
       <c r="D106" t="s">
         <v>19</v>
@@ -8572,45 +8575,45 @@
         <v>20</v>
       </c>
       <c r="F106" t="s">
-        <v>790</v>
+        <v>893</v>
       </c>
       <c r="G106" t="s">
-        <v>791</v>
+        <v>894</v>
       </c>
       <c r="H106" t="s">
-        <v>792</v>
+        <v>895</v>
       </c>
       <c r="I106" t="s">
         <v>24</v>
       </c>
       <c r="J106" t="s">
-        <v>793</v>
+        <v>896</v>
       </c>
       <c r="K106" t="s">
-        <v>26</v>
-      </c>
-      <c r="L106" t="s">
-        <v>26</v>
-      </c>
-      <c r="M106" t="s">
-        <v>26</v>
+        <v>1061</v>
+      </c>
+      <c r="L106" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M106" t="n">
+        <v>1146.38</v>
       </c>
       <c r="N106" t="s">
         <v>26</v>
       </c>
       <c r="O106" t="s">
-        <v>794</v>
+        <v>897</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>795</v>
+        <v>898</v>
       </c>
       <c r="B107" t="s">
-        <v>796</v>
+        <v>899</v>
       </c>
       <c r="C107" t="s">
-        <v>797</v>
+        <v>774</v>
       </c>
       <c r="D107" t="s">
         <v>19</v>
@@ -8619,45 +8622,45 @@
         <v>20</v>
       </c>
       <c r="F107" t="s">
-        <v>798</v>
+        <v>900</v>
       </c>
       <c r="G107" t="s">
-        <v>799</v>
+        <v>901</v>
       </c>
       <c r="H107" t="s">
-        <v>800</v>
+        <v>902</v>
       </c>
       <c r="I107" t="s">
         <v>24</v>
       </c>
       <c r="J107" t="s">
-        <v>801</v>
+        <v>903</v>
       </c>
       <c r="K107" t="s">
-        <v>26</v>
-      </c>
-      <c r="L107" t="s">
-        <v>26</v>
-      </c>
-      <c r="M107" t="s">
-        <v>26</v>
+        <v>1061</v>
+      </c>
+      <c r="L107" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M107" t="n">
+        <v>524.74</v>
       </c>
       <c r="N107" t="s">
         <v>26</v>
       </c>
       <c r="O107" t="s">
-        <v>802</v>
+        <v>904</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>803</v>
+        <v>910</v>
       </c>
       <c r="B108" t="s">
-        <v>804</v>
+        <v>911</v>
       </c>
       <c r="C108" t="s">
-        <v>805</v>
+        <v>912</v>
       </c>
       <c r="D108" t="s">
         <v>19</v>
@@ -8666,45 +8669,45 @@
         <v>20</v>
       </c>
       <c r="F108" t="s">
-        <v>806</v>
+        <v>913</v>
       </c>
       <c r="G108" t="s">
-        <v>807</v>
+        <v>914</v>
       </c>
       <c r="H108" t="s">
-        <v>808</v>
+        <v>915</v>
       </c>
       <c r="I108" t="s">
         <v>24</v>
       </c>
       <c r="J108" t="s">
-        <v>809</v>
+        <v>916</v>
       </c>
       <c r="K108" t="s">
-        <v>26</v>
-      </c>
-      <c r="L108" t="s">
-        <v>26</v>
-      </c>
-      <c r="M108" t="s">
-        <v>26</v>
+        <v>1061</v>
+      </c>
+      <c r="L108" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M108" t="n">
+        <v>275.3</v>
       </c>
       <c r="N108" t="s">
         <v>26</v>
       </c>
       <c r="O108" t="s">
-        <v>810</v>
+        <v>917</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>811</v>
+        <v>918</v>
       </c>
       <c r="B109" t="s">
-        <v>812</v>
+        <v>919</v>
       </c>
       <c r="C109" t="s">
-        <v>813</v>
+        <v>920</v>
       </c>
       <c r="D109" t="s">
         <v>19</v>
@@ -8713,45 +8716,45 @@
         <v>20</v>
       </c>
       <c r="F109" t="s">
-        <v>814</v>
+        <v>921</v>
       </c>
       <c r="G109" t="s">
-        <v>815</v>
+        <v>922</v>
       </c>
       <c r="H109" t="s">
-        <v>816</v>
+        <v>923</v>
       </c>
       <c r="I109" t="s">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="J109" t="s">
-        <v>817</v>
+        <v>924</v>
       </c>
       <c r="K109" t="s">
-        <v>26</v>
-      </c>
-      <c r="L109" t="s">
-        <v>26</v>
-      </c>
-      <c r="M109" t="s">
-        <v>26</v>
+        <v>1061</v>
+      </c>
+      <c r="L109" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M109" t="n">
+        <v>377.56</v>
       </c>
       <c r="N109" t="s">
         <v>26</v>
       </c>
       <c r="O109" t="s">
-        <v>84</v>
+        <v>925</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>818</v>
+        <v>926</v>
       </c>
       <c r="B110" t="s">
-        <v>819</v>
+        <v>927</v>
       </c>
       <c r="C110" t="s">
-        <v>820</v>
+        <v>928</v>
       </c>
       <c r="D110" t="s">
         <v>19</v>
@@ -8760,45 +8763,45 @@
         <v>20</v>
       </c>
       <c r="F110" t="s">
-        <v>821</v>
+        <v>929</v>
       </c>
       <c r="G110" t="s">
-        <v>822</v>
+        <v>930</v>
       </c>
       <c r="H110" t="s">
-        <v>823</v>
+        <v>931</v>
       </c>
       <c r="I110" t="s">
-        <v>824</v>
+        <v>24</v>
       </c>
       <c r="J110" t="s">
-        <v>825</v>
+        <v>932</v>
       </c>
       <c r="K110" t="s">
-        <v>26</v>
-      </c>
-      <c r="L110" t="s">
-        <v>26</v>
-      </c>
-      <c r="M110" t="s">
-        <v>26</v>
+        <v>1061</v>
+      </c>
+      <c r="L110" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M110" t="n">
+        <v>390.28</v>
       </c>
       <c r="N110" t="s">
         <v>26</v>
       </c>
       <c r="O110" t="s">
-        <v>826</v>
+        <v>933</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>827</v>
+        <v>934</v>
       </c>
       <c r="B111" t="s">
-        <v>828</v>
+        <v>935</v>
       </c>
       <c r="C111" t="s">
-        <v>829</v>
+        <v>936</v>
       </c>
       <c r="D111" t="s">
         <v>19</v>
@@ -8807,45 +8810,45 @@
         <v>20</v>
       </c>
       <c r="F111" t="s">
-        <v>830</v>
+        <v>937</v>
       </c>
       <c r="G111" t="s">
-        <v>831</v>
+        <v>938</v>
       </c>
       <c r="H111" t="s">
-        <v>832</v>
+        <v>939</v>
       </c>
       <c r="I111" t="s">
         <v>24</v>
       </c>
       <c r="J111" t="s">
-        <v>833</v>
+        <v>940</v>
       </c>
       <c r="K111" t="s">
-        <v>26</v>
-      </c>
-      <c r="L111" t="s">
-        <v>26</v>
-      </c>
-      <c r="M111" t="s">
-        <v>26</v>
+        <v>1061</v>
+      </c>
+      <c r="L111" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M111" t="n">
+        <v>556.02</v>
       </c>
       <c r="N111" t="s">
         <v>26</v>
       </c>
       <c r="O111" t="s">
-        <v>834</v>
+        <v>941</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>835</v>
+        <v>942</v>
       </c>
       <c r="B112" t="s">
-        <v>836</v>
+        <v>943</v>
       </c>
       <c r="C112" t="s">
-        <v>653</v>
+        <v>944</v>
       </c>
       <c r="D112" t="s">
         <v>19</v>
@@ -8854,45 +8857,45 @@
         <v>20</v>
       </c>
       <c r="F112" t="s">
-        <v>837</v>
+        <v>945</v>
       </c>
       <c r="G112" t="s">
-        <v>838</v>
+        <v>946</v>
       </c>
       <c r="H112" t="s">
-        <v>839</v>
+        <v>947</v>
       </c>
       <c r="I112" t="s">
         <v>24</v>
       </c>
       <c r="J112" t="s">
-        <v>840</v>
+        <v>948</v>
       </c>
       <c r="K112" t="s">
-        <v>26</v>
-      </c>
-      <c r="L112" t="s">
-        <v>26</v>
-      </c>
-      <c r="M112" t="s">
-        <v>26</v>
+        <v>1061</v>
+      </c>
+      <c r="L112" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M112" t="n">
+        <v>878.95</v>
       </c>
       <c r="N112" t="s">
         <v>26</v>
       </c>
       <c r="O112" t="s">
-        <v>841</v>
+        <v>949</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>835</v>
+        <v>950</v>
       </c>
       <c r="B113" t="s">
-        <v>842</v>
+        <v>951</v>
       </c>
       <c r="C113" t="s">
-        <v>653</v>
+        <v>952</v>
       </c>
       <c r="D113" t="s">
         <v>19</v>
@@ -8901,45 +8904,45 @@
         <v>20</v>
       </c>
       <c r="F113" t="s">
-        <v>843</v>
+        <v>953</v>
       </c>
       <c r="G113" t="s">
-        <v>844</v>
+        <v>954</v>
       </c>
       <c r="H113" t="s">
-        <v>845</v>
+        <v>955</v>
       </c>
       <c r="I113" t="s">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="J113" t="s">
-        <v>846</v>
+        <v>956</v>
       </c>
       <c r="K113" t="s">
-        <v>26</v>
-      </c>
-      <c r="L113" t="s">
-        <v>26</v>
-      </c>
-      <c r="M113" t="s">
-        <v>26</v>
+        <v>1061</v>
+      </c>
+      <c r="L113" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M113" t="n">
+        <v>684.16</v>
       </c>
       <c r="N113" t="s">
         <v>26</v>
       </c>
       <c r="O113" t="s">
-        <v>847</v>
+        <v>957</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>848</v>
+        <v>958</v>
       </c>
       <c r="B114" t="s">
-        <v>849</v>
+        <v>959</v>
       </c>
       <c r="C114" t="s">
-        <v>850</v>
+        <v>960</v>
       </c>
       <c r="D114" t="s">
         <v>19</v>
@@ -8948,45 +8951,45 @@
         <v>20</v>
       </c>
       <c r="F114" t="s">
-        <v>851</v>
+        <v>961</v>
       </c>
       <c r="G114" t="s">
-        <v>852</v>
+        <v>962</v>
       </c>
       <c r="H114" t="s">
-        <v>853</v>
+        <v>963</v>
       </c>
       <c r="I114" t="s">
         <v>24</v>
       </c>
       <c r="J114" t="s">
-        <v>854</v>
+        <v>964</v>
       </c>
       <c r="K114" t="s">
-        <v>26</v>
-      </c>
-      <c r="L114" t="s">
-        <v>26</v>
-      </c>
-      <c r="M114" t="s">
-        <v>26</v>
+        <v>1061</v>
+      </c>
+      <c r="L114" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M114" t="n">
+        <v>481.95</v>
       </c>
       <c r="N114" t="s">
         <v>26</v>
       </c>
       <c r="O114" t="s">
-        <v>84</v>
+        <v>965</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>855</v>
+        <v>966</v>
       </c>
       <c r="B115" t="s">
-        <v>29</v>
+        <v>967</v>
       </c>
       <c r="C115" t="s">
-        <v>30</v>
+        <v>197</v>
       </c>
       <c r="D115" t="s">
         <v>19</v>
@@ -8995,45 +8998,45 @@
         <v>20</v>
       </c>
       <c r="F115" t="s">
-        <v>856</v>
+        <v>968</v>
       </c>
       <c r="G115" t="s">
-        <v>857</v>
+        <v>969</v>
       </c>
       <c r="H115" t="s">
-        <v>858</v>
+        <v>970</v>
       </c>
       <c r="I115" t="s">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="J115" t="s">
-        <v>859</v>
+        <v>971</v>
       </c>
       <c r="K115" t="s">
-        <v>26</v>
-      </c>
-      <c r="L115" t="s">
-        <v>26</v>
-      </c>
-      <c r="M115" t="s">
-        <v>26</v>
+        <v>1061</v>
+      </c>
+      <c r="L115" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M115" t="n">
+        <v>679.03</v>
       </c>
       <c r="N115" t="s">
         <v>26</v>
       </c>
       <c r="O115" t="s">
-        <v>860</v>
+        <v>972</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>861</v>
+        <v>973</v>
       </c>
       <c r="B116" t="s">
-        <v>862</v>
+        <v>974</v>
       </c>
       <c r="C116" t="s">
-        <v>189</v>
+        <v>975</v>
       </c>
       <c r="D116" t="s">
         <v>19</v>
@@ -9042,45 +9045,45 @@
         <v>20</v>
       </c>
       <c r="F116" t="s">
-        <v>863</v>
+        <v>976</v>
       </c>
       <c r="G116" t="s">
-        <v>864</v>
+        <v>977</v>
       </c>
       <c r="H116" t="s">
-        <v>865</v>
+        <v>978</v>
       </c>
       <c r="I116" t="s">
         <v>24</v>
       </c>
       <c r="J116" t="s">
-        <v>866</v>
+        <v>979</v>
       </c>
       <c r="K116" t="s">
-        <v>26</v>
-      </c>
-      <c r="L116" t="s">
-        <v>26</v>
-      </c>
-      <c r="M116" t="s">
-        <v>26</v>
+        <v>1061</v>
+      </c>
+      <c r="L116" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M116" t="n">
+        <v>1037.83</v>
       </c>
       <c r="N116" t="s">
         <v>26</v>
       </c>
       <c r="O116" t="s">
-        <v>867</v>
+        <v>980</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>868</v>
+        <v>981</v>
       </c>
       <c r="B117" t="s">
-        <v>869</v>
+        <v>982</v>
       </c>
       <c r="C117" t="s">
-        <v>870</v>
+        <v>983</v>
       </c>
       <c r="D117" t="s">
         <v>19</v>
@@ -9089,45 +9092,45 @@
         <v>20</v>
       </c>
       <c r="F117" t="s">
-        <v>871</v>
+        <v>984</v>
       </c>
       <c r="G117" t="s">
-        <v>872</v>
+        <v>985</v>
       </c>
       <c r="H117" t="s">
-        <v>873</v>
+        <v>986</v>
       </c>
       <c r="I117" t="s">
         <v>24</v>
       </c>
       <c r="J117" t="s">
-        <v>874</v>
+        <v>987</v>
       </c>
       <c r="K117" t="s">
-        <v>26</v>
-      </c>
-      <c r="L117" t="s">
-        <v>26</v>
-      </c>
-      <c r="M117" t="s">
-        <v>26</v>
+        <v>1061</v>
+      </c>
+      <c r="L117" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M117" t="n">
+        <v>792.3</v>
       </c>
       <c r="N117" t="s">
         <v>26</v>
       </c>
       <c r="O117" t="s">
-        <v>875</v>
+        <v>988</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>876</v>
+        <v>989</v>
       </c>
       <c r="B118" t="s">
-        <v>877</v>
+        <v>990</v>
       </c>
       <c r="C118" t="s">
-        <v>878</v>
+        <v>991</v>
       </c>
       <c r="D118" t="s">
         <v>19</v>
@@ -9136,45 +9139,45 @@
         <v>20</v>
       </c>
       <c r="F118" t="s">
-        <v>879</v>
+        <v>992</v>
       </c>
       <c r="G118" t="s">
-        <v>880</v>
+        <v>993</v>
       </c>
       <c r="H118" t="s">
-        <v>881</v>
+        <v>994</v>
       </c>
       <c r="I118" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="J118" t="s">
-        <v>882</v>
+        <v>995</v>
       </c>
       <c r="K118" t="s">
-        <v>26</v>
-      </c>
-      <c r="L118" t="s">
-        <v>26</v>
-      </c>
-      <c r="M118" t="s">
-        <v>26</v>
+        <v>1061</v>
+      </c>
+      <c r="L118" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="M118" t="n">
+        <v>2562.04</v>
       </c>
       <c r="N118" t="s">
         <v>26</v>
       </c>
       <c r="O118" t="s">
-        <v>883</v>
+        <v>996</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>884</v>
+        <v>997</v>
       </c>
       <c r="B119" t="s">
-        <v>885</v>
+        <v>998</v>
       </c>
       <c r="C119" t="s">
-        <v>886</v>
+        <v>999</v>
       </c>
       <c r="D119" t="s">
         <v>19</v>
@@ -9183,45 +9186,45 @@
         <v>20</v>
       </c>
       <c r="F119" t="s">
-        <v>887</v>
+        <v>1000</v>
       </c>
       <c r="G119" t="s">
-        <v>888</v>
+        <v>1001</v>
       </c>
       <c r="H119" t="s">
-        <v>889</v>
+        <v>1002</v>
       </c>
       <c r="I119" t="s">
         <v>24</v>
       </c>
       <c r="J119" t="s">
-        <v>890</v>
+        <v>1003</v>
       </c>
       <c r="K119" t="s">
-        <v>26</v>
-      </c>
-      <c r="L119" t="s">
-        <v>26</v>
-      </c>
-      <c r="M119" t="s">
-        <v>26</v>
+        <v>1061</v>
+      </c>
+      <c r="L119" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M119" t="n">
+        <v>253.03</v>
       </c>
       <c r="N119" t="s">
         <v>26</v>
       </c>
       <c r="O119" t="s">
-        <v>891</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>892</v>
+        <v>1005</v>
       </c>
       <c r="B120" t="s">
-        <v>339</v>
+        <v>1006</v>
       </c>
       <c r="C120" t="s">
-        <v>340</v>
+        <v>1007</v>
       </c>
       <c r="D120" t="s">
         <v>19</v>
@@ -9230,45 +9233,45 @@
         <v>20</v>
       </c>
       <c r="F120" t="s">
-        <v>893</v>
+        <v>1008</v>
       </c>
       <c r="G120" t="s">
-        <v>894</v>
+        <v>554</v>
       </c>
       <c r="H120" t="s">
-        <v>895</v>
+        <v>1009</v>
       </c>
       <c r="I120" t="s">
         <v>24</v>
       </c>
       <c r="J120" t="s">
-        <v>896</v>
+        <v>1010</v>
       </c>
       <c r="K120" t="s">
-        <v>26</v>
-      </c>
-      <c r="L120" t="s">
-        <v>26</v>
-      </c>
-      <c r="M120" t="s">
-        <v>26</v>
+        <v>1061</v>
+      </c>
+      <c r="L120" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M120" t="n">
+        <v>457.76</v>
       </c>
       <c r="N120" t="s">
         <v>26</v>
       </c>
       <c r="O120" t="s">
-        <v>897</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>898</v>
+        <v>1012</v>
       </c>
       <c r="B121" t="s">
-        <v>899</v>
+        <v>1013</v>
       </c>
       <c r="C121" t="s">
-        <v>774</v>
+        <v>1014</v>
       </c>
       <c r="D121" t="s">
         <v>19</v>
@@ -9277,45 +9280,45 @@
         <v>20</v>
       </c>
       <c r="F121" t="s">
-        <v>900</v>
+        <v>1015</v>
       </c>
       <c r="G121" t="s">
-        <v>901</v>
+        <v>1016</v>
       </c>
       <c r="H121" t="s">
-        <v>902</v>
+        <v>1017</v>
       </c>
       <c r="I121" t="s">
         <v>24</v>
       </c>
       <c r="J121" t="s">
-        <v>903</v>
+        <v>1018</v>
       </c>
       <c r="K121" t="s">
-        <v>26</v>
-      </c>
-      <c r="L121" t="s">
-        <v>26</v>
-      </c>
-      <c r="M121" t="s">
-        <v>26</v>
+        <v>1061</v>
+      </c>
+      <c r="L121" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M121" t="n">
+        <v>263.86</v>
       </c>
       <c r="N121" t="s">
         <v>26</v>
       </c>
       <c r="O121" t="s">
-        <v>904</v>
+        <v>84</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>855</v>
+        <v>1019</v>
       </c>
       <c r="B122" t="s">
-        <v>29</v>
+        <v>1020</v>
       </c>
       <c r="C122" t="s">
-        <v>30</v>
+        <v>1021</v>
       </c>
       <c r="D122" t="s">
         <v>19</v>
@@ -9324,45 +9327,45 @@
         <v>20</v>
       </c>
       <c r="F122" t="s">
-        <v>905</v>
+        <v>1022</v>
       </c>
       <c r="G122" t="s">
-        <v>906</v>
+        <v>1023</v>
       </c>
       <c r="H122" t="s">
-        <v>907</v>
+        <v>1024</v>
       </c>
       <c r="I122" t="s">
         <v>24</v>
       </c>
       <c r="J122" t="s">
-        <v>908</v>
+        <v>1025</v>
       </c>
       <c r="K122" t="s">
-        <v>26</v>
-      </c>
-      <c r="L122" t="s">
-        <v>26</v>
-      </c>
-      <c r="M122" t="s">
-        <v>26</v>
+        <v>1061</v>
+      </c>
+      <c r="L122" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M122" t="n">
+        <v>798.97</v>
       </c>
       <c r="N122" t="s">
         <v>26</v>
       </c>
       <c r="O122" t="s">
-        <v>909</v>
+        <v>84</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>910</v>
+        <v>1026</v>
       </c>
       <c r="B123" t="s">
-        <v>911</v>
+        <v>1027</v>
       </c>
       <c r="C123" t="s">
-        <v>912</v>
+        <v>782</v>
       </c>
       <c r="D123" t="s">
         <v>19</v>
@@ -9371,45 +9374,45 @@
         <v>20</v>
       </c>
       <c r="F123" t="s">
-        <v>913</v>
+        <v>1028</v>
       </c>
       <c r="G123" t="s">
-        <v>914</v>
+        <v>1029</v>
       </c>
       <c r="H123" t="s">
-        <v>915</v>
+        <v>1030</v>
       </c>
       <c r="I123" t="s">
         <v>24</v>
       </c>
       <c r="J123" t="s">
-        <v>916</v>
+        <v>1031</v>
       </c>
       <c r="K123" t="s">
-        <v>26</v>
-      </c>
-      <c r="L123" t="s">
-        <v>26</v>
-      </c>
-      <c r="M123" t="s">
-        <v>26</v>
+        <v>1061</v>
+      </c>
+      <c r="L123" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M123" t="n">
+        <v>1287.32</v>
       </c>
       <c r="N123" t="s">
         <v>26</v>
       </c>
       <c r="O123" t="s">
-        <v>917</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>918</v>
+        <v>1033</v>
       </c>
       <c r="B124" t="s">
-        <v>919</v>
+        <v>1034</v>
       </c>
       <c r="C124" t="s">
-        <v>920</v>
+        <v>1035</v>
       </c>
       <c r="D124" t="s">
         <v>19</v>
@@ -9418,45 +9421,45 @@
         <v>20</v>
       </c>
       <c r="F124" t="s">
-        <v>921</v>
+        <v>1036</v>
       </c>
       <c r="G124" t="s">
-        <v>922</v>
+        <v>1037</v>
       </c>
       <c r="H124" t="s">
-        <v>923</v>
+        <v>1038</v>
       </c>
       <c r="I124" t="s">
         <v>24</v>
       </c>
       <c r="J124" t="s">
-        <v>924</v>
+        <v>1039</v>
       </c>
       <c r="K124" t="s">
-        <v>26</v>
-      </c>
-      <c r="L124" t="s">
-        <v>26</v>
-      </c>
-      <c r="M124" t="s">
-        <v>26</v>
+        <v>1061</v>
+      </c>
+      <c r="L124" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M124" t="n">
+        <v>318.6</v>
       </c>
       <c r="N124" t="s">
         <v>26</v>
       </c>
       <c r="O124" t="s">
-        <v>925</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>926</v>
+        <v>1041</v>
       </c>
       <c r="B125" t="s">
-        <v>927</v>
+        <v>1042</v>
       </c>
       <c r="C125" t="s">
-        <v>928</v>
+        <v>1043</v>
       </c>
       <c r="D125" t="s">
         <v>19</v>
@@ -9465,45 +9468,45 @@
         <v>20</v>
       </c>
       <c r="F125" t="s">
-        <v>929</v>
+        <v>1044</v>
       </c>
       <c r="G125" t="s">
-        <v>930</v>
+        <v>1045</v>
       </c>
       <c r="H125" t="s">
-        <v>931</v>
+        <v>1046</v>
       </c>
       <c r="I125" t="s">
         <v>24</v>
       </c>
       <c r="J125" t="s">
-        <v>932</v>
+        <v>1047</v>
       </c>
       <c r="K125" t="s">
-        <v>26</v>
-      </c>
-      <c r="L125" t="s">
-        <v>26</v>
-      </c>
-      <c r="M125" t="s">
-        <v>26</v>
+        <v>1061</v>
+      </c>
+      <c r="L125" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M125" t="n">
+        <v>464.4</v>
       </c>
       <c r="N125" t="s">
         <v>26</v>
       </c>
       <c r="O125" t="s">
-        <v>933</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>934</v>
+        <v>1041</v>
       </c>
       <c r="B126" t="s">
-        <v>935</v>
+        <v>1049</v>
       </c>
       <c r="C126" t="s">
-        <v>936</v>
+        <v>1043</v>
       </c>
       <c r="D126" t="s">
         <v>19</v>
@@ -9512,45 +9515,45 @@
         <v>20</v>
       </c>
       <c r="F126" t="s">
-        <v>937</v>
+        <v>1050</v>
       </c>
       <c r="G126" t="s">
-        <v>938</v>
+        <v>1051</v>
       </c>
       <c r="H126" t="s">
-        <v>939</v>
+        <v>1052</v>
       </c>
       <c r="I126" t="s">
         <v>24</v>
       </c>
       <c r="J126" t="s">
-        <v>940</v>
+        <v>1053</v>
       </c>
       <c r="K126" t="s">
-        <v>26</v>
-      </c>
-      <c r="L126" t="s">
-        <v>26</v>
-      </c>
-      <c r="M126" t="s">
-        <v>26</v>
+        <v>1061</v>
+      </c>
+      <c r="L126" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M126" t="n">
+        <v>401.42</v>
       </c>
       <c r="N126" t="s">
         <v>26</v>
       </c>
       <c r="O126" t="s">
-        <v>941</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>942</v>
+        <v>1055</v>
       </c>
       <c r="B127" t="s">
-        <v>943</v>
+        <v>1056</v>
       </c>
       <c r="C127" t="s">
-        <v>944</v>
+        <v>1057</v>
       </c>
       <c r="D127" t="s">
         <v>19</v>
@@ -9559,738 +9562,33 @@
         <v>20</v>
       </c>
       <c r="F127" t="s">
-        <v>945</v>
+        <v>1058</v>
       </c>
       <c r="G127" t="s">
-        <v>946</v>
+        <v>1059</v>
       </c>
       <c r="H127" t="s">
-        <v>947</v>
+        <v>800</v>
       </c>
       <c r="I127" t="s">
         <v>24</v>
       </c>
       <c r="J127" t="s">
-        <v>948</v>
+        <v>801</v>
       </c>
       <c r="K127" t="s">
-        <v>26</v>
-      </c>
-      <c r="L127" t="s">
-        <v>26</v>
-      </c>
-      <c r="M127" t="s">
-        <v>26</v>
+        <v>1061</v>
+      </c>
+      <c r="L127" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M127" t="n">
+        <v>568.61</v>
       </c>
       <c r="N127" t="s">
         <v>26</v>
       </c>
       <c r="O127" t="s">
-        <v>949</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="s">
-        <v>950</v>
-      </c>
-      <c r="B128" t="s">
-        <v>951</v>
-      </c>
-      <c r="C128" t="s">
-        <v>952</v>
-      </c>
-      <c r="D128" t="s">
-        <v>19</v>
-      </c>
-      <c r="E128" t="s">
-        <v>20</v>
-      </c>
-      <c r="F128" t="s">
-        <v>953</v>
-      </c>
-      <c r="G128" t="s">
-        <v>954</v>
-      </c>
-      <c r="H128" t="s">
-        <v>955</v>
-      </c>
-      <c r="I128" t="s">
-        <v>24</v>
-      </c>
-      <c r="J128" t="s">
-        <v>956</v>
-      </c>
-      <c r="K128" t="s">
-        <v>26</v>
-      </c>
-      <c r="L128" t="s">
-        <v>26</v>
-      </c>
-      <c r="M128" t="s">
-        <v>26</v>
-      </c>
-      <c r="N128" t="s">
-        <v>26</v>
-      </c>
-      <c r="O128" t="s">
-        <v>957</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="s">
-        <v>958</v>
-      </c>
-      <c r="B129" t="s">
-        <v>959</v>
-      </c>
-      <c r="C129" t="s">
-        <v>960</v>
-      </c>
-      <c r="D129" t="s">
-        <v>19</v>
-      </c>
-      <c r="E129" t="s">
-        <v>20</v>
-      </c>
-      <c r="F129" t="s">
-        <v>961</v>
-      </c>
-      <c r="G129" t="s">
-        <v>962</v>
-      </c>
-      <c r="H129" t="s">
-        <v>963</v>
-      </c>
-      <c r="I129" t="s">
-        <v>24</v>
-      </c>
-      <c r="J129" t="s">
-        <v>964</v>
-      </c>
-      <c r="K129" t="s">
-        <v>26</v>
-      </c>
-      <c r="L129" t="s">
-        <v>26</v>
-      </c>
-      <c r="M129" t="s">
-        <v>26</v>
-      </c>
-      <c r="N129" t="s">
-        <v>26</v>
-      </c>
-      <c r="O129" t="s">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="s">
-        <v>966</v>
-      </c>
-      <c r="B130" t="s">
-        <v>967</v>
-      </c>
-      <c r="C130" t="s">
-        <v>197</v>
-      </c>
-      <c r="D130" t="s">
-        <v>19</v>
-      </c>
-      <c r="E130" t="s">
-        <v>20</v>
-      </c>
-      <c r="F130" t="s">
-        <v>968</v>
-      </c>
-      <c r="G130" t="s">
-        <v>969</v>
-      </c>
-      <c r="H130" t="s">
-        <v>970</v>
-      </c>
-      <c r="I130" t="s">
-        <v>24</v>
-      </c>
-      <c r="J130" t="s">
-        <v>971</v>
-      </c>
-      <c r="K130" t="s">
-        <v>26</v>
-      </c>
-      <c r="L130" t="s">
-        <v>26</v>
-      </c>
-      <c r="M130" t="s">
-        <v>26</v>
-      </c>
-      <c r="N130" t="s">
-        <v>26</v>
-      </c>
-      <c r="O130" t="s">
-        <v>972</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="s">
-        <v>973</v>
-      </c>
-      <c r="B131" t="s">
-        <v>974</v>
-      </c>
-      <c r="C131" t="s">
-        <v>975</v>
-      </c>
-      <c r="D131" t="s">
-        <v>19</v>
-      </c>
-      <c r="E131" t="s">
-        <v>20</v>
-      </c>
-      <c r="F131" t="s">
-        <v>976</v>
-      </c>
-      <c r="G131" t="s">
-        <v>977</v>
-      </c>
-      <c r="H131" t="s">
-        <v>978</v>
-      </c>
-      <c r="I131" t="s">
-        <v>24</v>
-      </c>
-      <c r="J131" t="s">
-        <v>979</v>
-      </c>
-      <c r="K131" t="s">
-        <v>26</v>
-      </c>
-      <c r="L131" t="s">
-        <v>26</v>
-      </c>
-      <c r="M131" t="s">
-        <v>26</v>
-      </c>
-      <c r="N131" t="s">
-        <v>26</v>
-      </c>
-      <c r="O131" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="s">
-        <v>981</v>
-      </c>
-      <c r="B132" t="s">
-        <v>982</v>
-      </c>
-      <c r="C132" t="s">
-        <v>983</v>
-      </c>
-      <c r="D132" t="s">
-        <v>19</v>
-      </c>
-      <c r="E132" t="s">
-        <v>20</v>
-      </c>
-      <c r="F132" t="s">
-        <v>984</v>
-      </c>
-      <c r="G132" t="s">
-        <v>985</v>
-      </c>
-      <c r="H132" t="s">
-        <v>986</v>
-      </c>
-      <c r="I132" t="s">
-        <v>24</v>
-      </c>
-      <c r="J132" t="s">
-        <v>987</v>
-      </c>
-      <c r="K132" t="s">
-        <v>26</v>
-      </c>
-      <c r="L132" t="s">
-        <v>26</v>
-      </c>
-      <c r="M132" t="s">
-        <v>26</v>
-      </c>
-      <c r="N132" t="s">
-        <v>26</v>
-      </c>
-      <c r="O132" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="s">
-        <v>989</v>
-      </c>
-      <c r="B133" t="s">
-        <v>990</v>
-      </c>
-      <c r="C133" t="s">
-        <v>991</v>
-      </c>
-      <c r="D133" t="s">
-        <v>19</v>
-      </c>
-      <c r="E133" t="s">
-        <v>20</v>
-      </c>
-      <c r="F133" t="s">
-        <v>992</v>
-      </c>
-      <c r="G133" t="s">
-        <v>993</v>
-      </c>
-      <c r="H133" t="s">
-        <v>994</v>
-      </c>
-      <c r="I133" t="s">
-        <v>58</v>
-      </c>
-      <c r="J133" t="s">
-        <v>995</v>
-      </c>
-      <c r="K133" t="s">
-        <v>26</v>
-      </c>
-      <c r="L133" t="s">
-        <v>26</v>
-      </c>
-      <c r="M133" t="s">
-        <v>26</v>
-      </c>
-      <c r="N133" t="s">
-        <v>26</v>
-      </c>
-      <c r="O133" t="s">
-        <v>996</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="s">
-        <v>997</v>
-      </c>
-      <c r="B134" t="s">
-        <v>998</v>
-      </c>
-      <c r="C134" t="s">
-        <v>999</v>
-      </c>
-      <c r="D134" t="s">
-        <v>19</v>
-      </c>
-      <c r="E134" t="s">
-        <v>20</v>
-      </c>
-      <c r="F134" t="s">
-        <v>1000</v>
-      </c>
-      <c r="G134" t="s">
-        <v>1001</v>
-      </c>
-      <c r="H134" t="s">
-        <v>1002</v>
-      </c>
-      <c r="I134" t="s">
-        <v>24</v>
-      </c>
-      <c r="J134" t="s">
-        <v>1003</v>
-      </c>
-      <c r="K134" t="s">
-        <v>26</v>
-      </c>
-      <c r="L134" t="s">
-        <v>26</v>
-      </c>
-      <c r="M134" t="s">
-        <v>26</v>
-      </c>
-      <c r="N134" t="s">
-        <v>26</v>
-      </c>
-      <c r="O134" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="s">
-        <v>1005</v>
-      </c>
-      <c r="B135" t="s">
-        <v>1006</v>
-      </c>
-      <c r="C135" t="s">
-        <v>1007</v>
-      </c>
-      <c r="D135" t="s">
-        <v>19</v>
-      </c>
-      <c r="E135" t="s">
-        <v>20</v>
-      </c>
-      <c r="F135" t="s">
-        <v>1008</v>
-      </c>
-      <c r="G135" t="s">
-        <v>554</v>
-      </c>
-      <c r="H135" t="s">
-        <v>1009</v>
-      </c>
-      <c r="I135" t="s">
-        <v>24</v>
-      </c>
-      <c r="J135" t="s">
-        <v>1010</v>
-      </c>
-      <c r="K135" t="s">
-        <v>26</v>
-      </c>
-      <c r="L135" t="s">
-        <v>26</v>
-      </c>
-      <c r="M135" t="s">
-        <v>26</v>
-      </c>
-      <c r="N135" t="s">
-        <v>26</v>
-      </c>
-      <c r="O135" t="s">
-        <v>1011</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="s">
-        <v>1012</v>
-      </c>
-      <c r="B136" t="s">
-        <v>1013</v>
-      </c>
-      <c r="C136" t="s">
-        <v>1014</v>
-      </c>
-      <c r="D136" t="s">
-        <v>19</v>
-      </c>
-      <c r="E136" t="s">
-        <v>20</v>
-      </c>
-      <c r="F136" t="s">
-        <v>1015</v>
-      </c>
-      <c r="G136" t="s">
-        <v>1016</v>
-      </c>
-      <c r="H136" t="s">
-        <v>1017</v>
-      </c>
-      <c r="I136" t="s">
-        <v>24</v>
-      </c>
-      <c r="J136" t="s">
-        <v>1018</v>
-      </c>
-      <c r="K136" t="s">
-        <v>26</v>
-      </c>
-      <c r="L136" t="s">
-        <v>26</v>
-      </c>
-      <c r="M136" t="s">
-        <v>26</v>
-      </c>
-      <c r="N136" t="s">
-        <v>26</v>
-      </c>
-      <c r="O136" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="s">
-        <v>1019</v>
-      </c>
-      <c r="B137" t="s">
-        <v>1020</v>
-      </c>
-      <c r="C137" t="s">
-        <v>1021</v>
-      </c>
-      <c r="D137" t="s">
-        <v>19</v>
-      </c>
-      <c r="E137" t="s">
-        <v>20</v>
-      </c>
-      <c r="F137" t="s">
-        <v>1022</v>
-      </c>
-      <c r="G137" t="s">
-        <v>1023</v>
-      </c>
-      <c r="H137" t="s">
-        <v>1024</v>
-      </c>
-      <c r="I137" t="s">
-        <v>24</v>
-      </c>
-      <c r="J137" t="s">
-        <v>1025</v>
-      </c>
-      <c r="K137" t="s">
-        <v>26</v>
-      </c>
-      <c r="L137" t="s">
-        <v>26</v>
-      </c>
-      <c r="M137" t="s">
-        <v>26</v>
-      </c>
-      <c r="N137" t="s">
-        <v>26</v>
-      </c>
-      <c r="O137" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="s">
-        <v>1026</v>
-      </c>
-      <c r="B138" t="s">
-        <v>1027</v>
-      </c>
-      <c r="C138" t="s">
-        <v>782</v>
-      </c>
-      <c r="D138" t="s">
-        <v>19</v>
-      </c>
-      <c r="E138" t="s">
-        <v>20</v>
-      </c>
-      <c r="F138" t="s">
-        <v>1028</v>
-      </c>
-      <c r="G138" t="s">
-        <v>1029</v>
-      </c>
-      <c r="H138" t="s">
-        <v>1030</v>
-      </c>
-      <c r="I138" t="s">
-        <v>24</v>
-      </c>
-      <c r="J138" t="s">
-        <v>1031</v>
-      </c>
-      <c r="K138" t="s">
-        <v>26</v>
-      </c>
-      <c r="L138" t="s">
-        <v>26</v>
-      </c>
-      <c r="M138" t="s">
-        <v>26</v>
-      </c>
-      <c r="N138" t="s">
-        <v>26</v>
-      </c>
-      <c r="O138" t="s">
-        <v>1032</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="s">
-        <v>1033</v>
-      </c>
-      <c r="B139" t="s">
-        <v>1034</v>
-      </c>
-      <c r="C139" t="s">
-        <v>1035</v>
-      </c>
-      <c r="D139" t="s">
-        <v>19</v>
-      </c>
-      <c r="E139" t="s">
-        <v>20</v>
-      </c>
-      <c r="F139" t="s">
-        <v>1036</v>
-      </c>
-      <c r="G139" t="s">
-        <v>1037</v>
-      </c>
-      <c r="H139" t="s">
-        <v>1038</v>
-      </c>
-      <c r="I139" t="s">
-        <v>24</v>
-      </c>
-      <c r="J139" t="s">
-        <v>1039</v>
-      </c>
-      <c r="K139" t="s">
-        <v>26</v>
-      </c>
-      <c r="L139" t="s">
-        <v>26</v>
-      </c>
-      <c r="M139" t="s">
-        <v>26</v>
-      </c>
-      <c r="N139" t="s">
-        <v>26</v>
-      </c>
-      <c r="O139" t="s">
-        <v>1040</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="s">
-        <v>1041</v>
-      </c>
-      <c r="B140" t="s">
-        <v>1042</v>
-      </c>
-      <c r="C140" t="s">
-        <v>1043</v>
-      </c>
-      <c r="D140" t="s">
-        <v>19</v>
-      </c>
-      <c r="E140" t="s">
-        <v>20</v>
-      </c>
-      <c r="F140" t="s">
-        <v>1044</v>
-      </c>
-      <c r="G140" t="s">
-        <v>1045</v>
-      </c>
-      <c r="H140" t="s">
-        <v>1046</v>
-      </c>
-      <c r="I140" t="s">
-        <v>24</v>
-      </c>
-      <c r="J140" t="s">
-        <v>1047</v>
-      </c>
-      <c r="K140" t="s">
-        <v>26</v>
-      </c>
-      <c r="L140" t="s">
-        <v>26</v>
-      </c>
-      <c r="M140" t="s">
-        <v>26</v>
-      </c>
-      <c r="N140" t="s">
-        <v>26</v>
-      </c>
-      <c r="O140" t="s">
-        <v>1048</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="s">
-        <v>1041</v>
-      </c>
-      <c r="B141" t="s">
-        <v>1049</v>
-      </c>
-      <c r="C141" t="s">
-        <v>1043</v>
-      </c>
-      <c r="D141" t="s">
-        <v>19</v>
-      </c>
-      <c r="E141" t="s">
-        <v>20</v>
-      </c>
-      <c r="F141" t="s">
-        <v>1050</v>
-      </c>
-      <c r="G141" t="s">
-        <v>1051</v>
-      </c>
-      <c r="H141" t="s">
-        <v>1052</v>
-      </c>
-      <c r="I141" t="s">
-        <v>24</v>
-      </c>
-      <c r="J141" t="s">
-        <v>1053</v>
-      </c>
-      <c r="K141" t="s">
-        <v>26</v>
-      </c>
-      <c r="L141" t="s">
-        <v>26</v>
-      </c>
-      <c r="M141" t="s">
-        <v>26</v>
-      </c>
-      <c r="N141" t="s">
-        <v>26</v>
-      </c>
-      <c r="O141" t="s">
-        <v>1054</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="s">
-        <v>1055</v>
-      </c>
-      <c r="B142" t="s">
-        <v>1056</v>
-      </c>
-      <c r="C142" t="s">
-        <v>1057</v>
-      </c>
-      <c r="D142" t="s">
-        <v>19</v>
-      </c>
-      <c r="E142" t="s">
-        <v>20</v>
-      </c>
-      <c r="F142" t="s">
-        <v>1058</v>
-      </c>
-      <c r="G142" t="s">
-        <v>1059</v>
-      </c>
-      <c r="H142" t="s">
-        <v>800</v>
-      </c>
-      <c r="I142" t="s">
-        <v>24</v>
-      </c>
-      <c r="J142" t="s">
-        <v>801</v>
-      </c>
-      <c r="K142" t="s">
-        <v>26</v>
-      </c>
-      <c r="L142" t="s">
-        <v>26</v>
-      </c>
-      <c r="M142" t="s">
-        <v>26</v>
-      </c>
-      <c r="N142" t="s">
-        <v>26</v>
-      </c>
-      <c r="O142" t="s">
         <v>1060</v>
       </c>
     </row>
